--- a/raw_data/20200818_saline/20200818_Sensor1_Test_90.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_90.xlsx
@@ -1,598 +1,1014 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A30773-D9C5-4A94-84B8-C0760B5AB4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>80288.397570</v>
+        <v>80288.397570000001</v>
       </c>
       <c r="B2" s="1">
-        <v>22.302333</v>
+        <v>22.302333000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>905.293000</v>
+        <v>905.29300000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-200.349000</v>
+        <v>-200.34899999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>80298.514467</v>
+        <v>80298.514467000001</v>
       </c>
       <c r="G2" s="1">
-        <v>22.305143</v>
+        <v>22.305143000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>923.458000</v>
+        <v>923.45799999999997</v>
       </c>
       <c r="I2" s="1">
-        <v>-169.998000</v>
+        <v>-169.99799999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>80308.608054</v>
+        <v>80308.608053999997</v>
       </c>
       <c r="L2" s="1">
-        <v>22.307947</v>
+        <v>22.307946999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>947.558000</v>
+        <v>947.55799999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-121.407000</v>
+        <v>-121.407</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>80319.138121</v>
+        <v>80319.138120999996</v>
       </c>
       <c r="Q2" s="1">
         <v>22.310872</v>
       </c>
       <c r="R2" s="1">
-        <v>954.888000</v>
+        <v>954.88800000000003</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.867000</v>
+        <v>-104.867</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>80329.380010</v>
+        <v>80329.380009999993</v>
       </c>
       <c r="V2" s="1">
         <v>22.313717</v>
       </c>
       <c r="W2" s="1">
-        <v>961.862000</v>
+        <v>961.86199999999997</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.629700</v>
+        <v>-89.6297</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>80339.788589</v>
+        <v>80339.788589000003</v>
       </c>
       <c r="AA2" s="1">
-        <v>22.316608</v>
+        <v>22.316607999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>969.281000</v>
+        <v>969.28099999999995</v>
       </c>
       <c r="AC2" s="1">
-        <v>-77.766900</v>
+        <v>-77.766900000000007</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>80350.364255</v>
+        <v>80350.364254999993</v>
       </c>
       <c r="AF2" s="1">
-        <v>22.319546</v>
+        <v>22.319545999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>974.145000</v>
+        <v>974.14499999999998</v>
       </c>
       <c r="AH2" s="1">
-        <v>-75.388400</v>
+        <v>-75.388400000000004</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>80360.846736</v>
+        <v>80360.846736000007</v>
       </c>
       <c r="AK2" s="1">
         <v>22.322457</v>
       </c>
       <c r="AL2" s="1">
-        <v>981.529000</v>
+        <v>981.529</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.804200</v>
+        <v>-79.804199999999994</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>80371.422435</v>
@@ -601,1041 +1017,1041 @@
         <v>22.325395</v>
       </c>
       <c r="AQ2" s="1">
-        <v>989.745000</v>
+        <v>989.745</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.070500</v>
+        <v>-91.070499999999996</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>80382.438084</v>
+        <v>80382.438083999994</v>
       </c>
       <c r="AU2" s="1">
-        <v>22.328455</v>
+        <v>22.328455000000002</v>
       </c>
       <c r="AV2" s="1">
-        <v>999.636000</v>
+        <v>999.63599999999997</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.431000</v>
+        <v>-108.431</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>80393.538053</v>
+        <v>80393.538052999997</v>
       </c>
       <c r="AZ2" s="1">
-        <v>22.331538</v>
+        <v>22.331537999999998</v>
       </c>
       <c r="BA2" s="1">
-        <v>1007.950000</v>
+        <v>1007.95</v>
       </c>
       <c r="BB2" s="1">
-        <v>-123.892000</v>
+        <v>-123.892</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>80404.832918</v>
       </c>
       <c r="BE2" s="1">
-        <v>22.334676</v>
+        <v>22.334676000000002</v>
       </c>
       <c r="BF2" s="1">
-        <v>1046.760000</v>
+        <v>1046.76</v>
       </c>
       <c r="BG2" s="1">
-        <v>-194.818000</v>
+        <v>-194.81800000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>80415.819304</v>
+        <v>80415.819304000004</v>
       </c>
       <c r="BJ2" s="1">
-        <v>22.337728</v>
+        <v>22.337727999999998</v>
       </c>
       <c r="BK2" s="1">
-        <v>1113.680000</v>
+        <v>1113.68</v>
       </c>
       <c r="BL2" s="1">
-        <v>-309.372000</v>
+        <v>-309.37200000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>80427.303705</v>
+        <v>80427.303704999998</v>
       </c>
       <c r="BO2" s="1">
-        <v>22.340918</v>
+        <v>22.340917999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1221.900000</v>
+        <v>1221.9000000000001</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-488.723000</v>
+        <v>-488.72300000000001</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>80438.481018</v>
+        <v>80438.481018000006</v>
       </c>
       <c r="BT2" s="1">
         <v>22.344023</v>
       </c>
       <c r="BU2" s="1">
-        <v>1343.080000</v>
+        <v>1343.08</v>
       </c>
       <c r="BV2" s="1">
-        <v>-684.289000</v>
+        <v>-684.28899999999999</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>80449.037869</v>
+        <v>80449.037869000007</v>
       </c>
       <c r="BY2" s="1">
-        <v>22.346955</v>
+        <v>22.346955000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1477.320000</v>
+        <v>1477.32</v>
       </c>
       <c r="CA2" s="1">
-        <v>-892.442000</v>
+        <v>-892.44200000000001</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>80460.790608</v>
+        <v>80460.790607999996</v>
       </c>
       <c r="CD2" s="1">
-        <v>22.350220</v>
+        <v>22.35022</v>
       </c>
       <c r="CE2" s="1">
-        <v>1826.410000</v>
+        <v>1826.41</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1383.670000</v>
+        <v>-1383.67</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>80288.750751</v>
       </c>
       <c r="B3" s="1">
-        <v>22.302431</v>
+        <v>22.302430999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>905.577000</v>
+        <v>905.577</v>
       </c>
       <c r="D3" s="1">
-        <v>-200.271000</v>
+        <v>-200.27099999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>80298.864147</v>
       </c>
       <c r="G3" s="1">
-        <v>22.305240</v>
+        <v>22.305240000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>923.680000</v>
+        <v>923.68</v>
       </c>
       <c r="I3" s="1">
-        <v>-169.933000</v>
+        <v>-169.93299999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>80308.989973</v>
+        <v>80308.989973000003</v>
       </c>
       <c r="L3" s="1">
-        <v>22.308053</v>
+        <v>22.308053000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>947.855000</v>
+        <v>947.85500000000002</v>
       </c>
       <c r="N3" s="1">
-        <v>-121.243000</v>
+        <v>-121.24299999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>80319.578569</v>
+        <v>80319.578569000005</v>
       </c>
       <c r="Q3" s="1">
-        <v>22.310994</v>
+        <v>22.310994000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>954.894000</v>
+        <v>954.89400000000001</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.867000</v>
+        <v>-104.867</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>80329.808585</v>
+        <v>80329.808585000006</v>
       </c>
       <c r="V3" s="1">
-        <v>22.313836</v>
+        <v>22.313835999999998</v>
       </c>
       <c r="W3" s="1">
-        <v>961.903000</v>
+        <v>961.90300000000002</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.636000</v>
+        <v>-89.635999999999996</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>80340.200269</v>
+        <v>80340.200268999994</v>
       </c>
       <c r="AA3" s="1">
-        <v>22.316722</v>
+        <v>22.316721999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>969.251000</v>
+        <v>969.25099999999998</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.742400</v>
+        <v>-77.742400000000004</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>80350.762542</v>
+        <v>80350.762541999997</v>
       </c>
       <c r="AF3" s="1">
-        <v>22.319656</v>
+        <v>22.319655999999998</v>
       </c>
       <c r="AG3" s="1">
-        <v>974.150000</v>
+        <v>974.15</v>
       </c>
       <c r="AH3" s="1">
-        <v>-75.362300</v>
+        <v>-75.362300000000005</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>80361.211264</v>
+        <v>80361.211263999998</v>
       </c>
       <c r="AK3" s="1">
-        <v>22.322559</v>
+        <v>22.322558999999998</v>
       </c>
       <c r="AL3" s="1">
-        <v>981.516000</v>
+        <v>981.51599999999996</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.797600</v>
+        <v>-79.797600000000003</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>80371.811762</v>
+        <v>80371.811761999998</v>
       </c>
       <c r="AP3" s="1">
-        <v>22.325503</v>
+        <v>22.325503000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>989.744000</v>
+        <v>989.74400000000003</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.067800</v>
+        <v>-91.067800000000005</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>80382.821460</v>
+        <v>80382.821460000006</v>
       </c>
       <c r="AU3" s="1">
-        <v>22.328562</v>
+        <v>22.328562000000002</v>
       </c>
       <c r="AV3" s="1">
-        <v>999.635000</v>
+        <v>999.63499999999999</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.428000</v>
+        <v>-108.428</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>80394.285988</v>
+        <v>80394.285988000003</v>
       </c>
       <c r="AZ3" s="1">
-        <v>22.331746</v>
+        <v>22.331745999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1007.960000</v>
+        <v>1007.96</v>
       </c>
       <c r="BB3" s="1">
-        <v>-123.884000</v>
+        <v>-123.884</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>80405.238646</v>
+        <v>80405.238645999998</v>
       </c>
       <c r="BE3" s="1">
-        <v>22.334789</v>
+        <v>22.334789000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1046.760000</v>
+        <v>1046.76</v>
       </c>
       <c r="BG3" s="1">
-        <v>-194.807000</v>
+        <v>-194.80699999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>80416.228008</v>
+        <v>80416.228008000006</v>
       </c>
       <c r="BJ3" s="1">
-        <v>22.337841</v>
+        <v>22.337841000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1113.680000</v>
+        <v>1113.68</v>
       </c>
       <c r="BL3" s="1">
-        <v>-309.371000</v>
+        <v>-309.37099999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>80427.724280</v>
+        <v>80427.724279999995</v>
       </c>
       <c r="BO3" s="1">
-        <v>22.341035</v>
+        <v>22.341035000000002</v>
       </c>
       <c r="BP3" s="1">
-        <v>1221.880000</v>
+        <v>1221.8800000000001</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-488.755000</v>
+        <v>-488.755</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>80439.227497</v>
       </c>
       <c r="BT3" s="1">
-        <v>22.344230</v>
+        <v>22.34423</v>
       </c>
       <c r="BU3" s="1">
-        <v>1342.990000</v>
+        <v>1342.99</v>
       </c>
       <c r="BV3" s="1">
-        <v>-684.319000</v>
+        <v>-684.31899999999996</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>80449.843933</v>
+        <v>80449.843932999996</v>
       </c>
       <c r="BY3" s="1">
-        <v>22.347179</v>
+        <v>22.347179000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1477.240000</v>
+        <v>1477.24</v>
       </c>
       <c r="CA3" s="1">
-        <v>-892.334000</v>
+        <v>-892.33399999999995</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>80461.074813</v>
+        <v>80461.074812999999</v>
       </c>
       <c r="CD3" s="1">
         <v>22.350299</v>
       </c>
       <c r="CE3" s="1">
-        <v>1825.550000</v>
+        <v>1825.55</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1384.460000</v>
+        <v>-1384.46</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>80289.096431</v>
+        <v>80289.096430999998</v>
       </c>
       <c r="B4" s="1">
-        <v>22.302527</v>
+        <v>22.302527000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>905.460000</v>
+        <v>905.46</v>
       </c>
       <c r="D4" s="1">
-        <v>-200.290000</v>
+        <v>-200.29</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>80299.206390</v>
+        <v>80299.206390000007</v>
       </c>
       <c r="G4" s="1">
-        <v>22.305335</v>
+        <v>22.305334999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>923.611000</v>
+        <v>923.61099999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-170.361000</v>
+        <v>-170.36099999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>80309.414052</v>
+        <v>80309.414051999993</v>
       </c>
       <c r="L4" s="1">
-        <v>22.308171</v>
+        <v>22.308171000000002</v>
       </c>
       <c r="M4" s="1">
-        <v>947.786000</v>
+        <v>947.78599999999994</v>
       </c>
       <c r="N4" s="1">
-        <v>-121.194000</v>
+        <v>-121.194</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>80319.878647</v>
+        <v>80319.878647000005</v>
       </c>
       <c r="Q4" s="1">
-        <v>22.311077</v>
+        <v>22.311077000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>954.861000</v>
+        <v>954.86099999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.911000</v>
+        <v>-104.911</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>80330.107641</v>
+        <v>80330.107640999995</v>
       </c>
       <c r="V4" s="1">
-        <v>22.313919</v>
+        <v>22.313918999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>961.798000</v>
+        <v>961.798</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.721100</v>
+        <v>-89.721100000000007</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>80340.547932</v>
+        <v>80340.547932000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>22.316819</v>
+        <v>22.316818999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>969.273000</v>
+        <v>969.27300000000002</v>
       </c>
       <c r="AC4" s="1">
-        <v>-77.740900</v>
+        <v>-77.740899999999996</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>80351.103293</v>
+        <v>80351.103292999993</v>
       </c>
       <c r="AF4" s="1">
         <v>22.319751</v>
       </c>
       <c r="AG4" s="1">
-        <v>974.146000</v>
+        <v>974.14599999999996</v>
       </c>
       <c r="AH4" s="1">
-        <v>-75.318300</v>
+        <v>-75.318299999999994</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>80361.559456</v>
+        <v>80361.559456000003</v>
       </c>
       <c r="AK4" s="1">
-        <v>22.322655</v>
+        <v>22.322655000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>981.507000</v>
+        <v>981.50699999999995</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.764500</v>
+        <v>-79.764499999999998</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>80372.535953</v>
+        <v>80372.535952999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>22.325704</v>
+        <v>22.325704000000002</v>
       </c>
       <c r="AQ4" s="1">
-        <v>989.722000</v>
+        <v>989.72199999999998</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.086200</v>
+        <v>-91.086200000000005</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>80383.552595</v>
+        <v>80383.552595000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>22.328765</v>
+        <v>22.328765000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>999.650000</v>
+        <v>999.65</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.435000</v>
+        <v>-108.435</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>80394.640628</v>
+        <v>80394.640627999994</v>
       </c>
       <c r="AZ4" s="1">
-        <v>22.331845</v>
+        <v>22.331845000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1007.950000</v>
+        <v>1007.95</v>
       </c>
       <c r="BB4" s="1">
-        <v>-123.903000</v>
+        <v>-123.90300000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>80405.596757</v>
+        <v>80405.596757000007</v>
       </c>
       <c r="BE4" s="1">
-        <v>22.334888</v>
+        <v>22.334887999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1046.770000</v>
+        <v>1046.77</v>
       </c>
       <c r="BG4" s="1">
-        <v>-194.810000</v>
+        <v>-194.81</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>80416.602983</v>
+        <v>80416.602983000004</v>
       </c>
       <c r="BJ4" s="1">
-        <v>22.337945</v>
+        <v>22.337945000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1113.710000</v>
+        <v>1113.71</v>
       </c>
       <c r="BL4" s="1">
-        <v>-309.397000</v>
+        <v>-309.39699999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>80428.462328</v>
+        <v>80428.462327999994</v>
       </c>
       <c r="BO4" s="1">
-        <v>22.341240</v>
+        <v>22.341239999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1221.860000</v>
+        <v>1221.8599999999999</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-488.808000</v>
+        <v>-488.80799999999999</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>80439.337113</v>
+        <v>80439.337113000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>22.344260</v>
+        <v>22.344259999999998</v>
       </c>
       <c r="BU4" s="1">
-        <v>1342.960000</v>
+        <v>1342.96</v>
       </c>
       <c r="BV4" s="1">
-        <v>-684.312000</v>
+        <v>-684.31200000000001</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>80449.971347</v>
+        <v>80449.971346999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>22.347214</v>
+        <v>22.347214000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1477.330000</v>
+        <v>1477.33</v>
       </c>
       <c r="CA4" s="1">
-        <v>-892.499000</v>
+        <v>-892.49900000000002</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>80461.596625</v>
+        <v>80461.596625000006</v>
       </c>
       <c r="CD4" s="1">
         <v>22.350444</v>
       </c>
       <c r="CE4" s="1">
-        <v>1826.900000</v>
+        <v>1826.9</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1385.400000</v>
+        <v>-1385.4</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>80289.533904</v>
+        <v>80289.533903999996</v>
       </c>
       <c r="B5" s="1">
-        <v>22.302648</v>
+        <v>22.302648000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>905.531000</v>
+        <v>905.53099999999995</v>
       </c>
       <c r="D5" s="1">
-        <v>-200.313000</v>
+        <v>-200.31299999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>80299.634433</v>
+        <v>80299.634432999999</v>
       </c>
       <c r="G5" s="1">
-        <v>22.305454</v>
+        <v>22.305454000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>923.723000</v>
+        <v>923.72299999999996</v>
       </c>
       <c r="I5" s="1">
-        <v>-169.960000</v>
+        <v>-169.96</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>80309.711652</v>
+        <v>80309.711651999998</v>
       </c>
       <c r="L5" s="1">
-        <v>22.308253</v>
+        <v>22.308253000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>947.782000</v>
+        <v>947.78200000000004</v>
       </c>
       <c r="N5" s="1">
-        <v>-121.251000</v>
+        <v>-121.251</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>80320.226840</v>
+        <v>80320.226840000003</v>
       </c>
       <c r="Q5" s="1">
-        <v>22.311174</v>
+        <v>22.311174000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>954.829000</v>
+        <v>954.82899999999995</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.956000</v>
+        <v>-104.956</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>80330.452857</v>
+        <v>80330.452856999997</v>
       </c>
       <c r="V5" s="1">
-        <v>22.314015</v>
+        <v>22.314015000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>961.725000</v>
+        <v>961.72500000000002</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.723500</v>
+        <v>-89.723500000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>80340.896651</v>
+        <v>80340.896651000003</v>
       </c>
       <c r="AA5" s="1">
-        <v>22.316916</v>
+        <v>22.316915999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>969.302000</v>
+        <v>969.30200000000002</v>
       </c>
       <c r="AC5" s="1">
-        <v>-77.739200</v>
+        <v>-77.739199999999997</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>80351.452672</v>
+        <v>80351.452671999999</v>
       </c>
       <c r="AF5" s="1">
         <v>22.319848</v>
       </c>
       <c r="AG5" s="1">
-        <v>974.152000</v>
+        <v>974.15200000000004</v>
       </c>
       <c r="AH5" s="1">
-        <v>-75.341000</v>
+        <v>-75.340999999999994</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>80362.256336</v>
+        <v>80362.256336000006</v>
       </c>
       <c r="AK5" s="1">
-        <v>22.322849</v>
+        <v>22.322849000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>981.553000</v>
+        <v>981.553</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.803000</v>
+        <v>-79.802999999999997</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>80372.924786</v>
+        <v>80372.924786000003</v>
       </c>
       <c r="AP5" s="1">
-        <v>22.325812</v>
+        <v>22.325811999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>989.730000</v>
+        <v>989.73</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.068800</v>
+        <v>-91.068799999999996</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>80383.935970</v>
+        <v>80383.935970000006</v>
       </c>
       <c r="AU5" s="1">
-        <v>22.328871</v>
+        <v>22.328870999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>999.638000</v>
+        <v>999.63800000000003</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.420000</v>
+        <v>-108.42</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>80395.003701</v>
+        <v>80395.003700999994</v>
       </c>
       <c r="AZ5" s="1">
-        <v>22.331945</v>
+        <v>22.331945000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1007.940000</v>
+        <v>1007.94</v>
       </c>
       <c r="BB5" s="1">
-        <v>-123.883000</v>
+        <v>-123.883</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>80406.262410</v>
+        <v>80406.262409999996</v>
       </c>
       <c r="BE5" s="1">
-        <v>22.335073</v>
+        <v>22.335073000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1046.760000</v>
+        <v>1046.76</v>
       </c>
       <c r="BG5" s="1">
-        <v>-194.824000</v>
+        <v>-194.82400000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>80417.293942</v>
+        <v>80417.293942000004</v>
       </c>
       <c r="BJ5" s="1">
         <v>22.338137</v>
       </c>
       <c r="BK5" s="1">
-        <v>1113.690000</v>
+        <v>1113.69</v>
       </c>
       <c r="BL5" s="1">
-        <v>-309.409000</v>
+        <v>-309.40899999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>80428.960806</v>
+        <v>80428.960806000003</v>
       </c>
       <c r="BO5" s="1">
-        <v>22.341378</v>
+        <v>22.341377999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1221.920000</v>
+        <v>1221.92</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-488.755000</v>
+        <v>-488.755</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>80439.753752</v>
+        <v>80439.753752000004</v>
       </c>
       <c r="BT5" s="1">
         <v>22.344376</v>
       </c>
       <c r="BU5" s="1">
-        <v>1342.830000</v>
+        <v>1342.83</v>
       </c>
       <c r="BV5" s="1">
-        <v>-684.339000</v>
+        <v>-684.33900000000006</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>80450.412283</v>
+        <v>80450.412282999998</v>
       </c>
       <c r="BY5" s="1">
         <v>22.347337</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1477.300000</v>
+        <v>1477.3</v>
       </c>
       <c r="CA5" s="1">
-        <v>-892.546000</v>
+        <v>-892.54600000000005</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>80462.131291</v>
+        <v>80462.131290999998</v>
       </c>
       <c r="CD5" s="1">
-        <v>22.350592</v>
+        <v>22.350591999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>1825.890000</v>
+        <v>1825.89</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1383.830000</v>
+        <v>-1383.83</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>80289.799758</v>
+        <v>80289.799757999994</v>
       </c>
       <c r="B6" s="1">
-        <v>22.302722</v>
+        <v>22.302721999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>905.350000</v>
+        <v>905.35</v>
       </c>
       <c r="D6" s="1">
-        <v>-200.144000</v>
+        <v>-200.14400000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>80299.897809</v>
+        <v>80299.897809000002</v>
       </c>
       <c r="G6" s="1">
-        <v>22.305527</v>
+        <v>22.305527000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>923.731000</v>
+        <v>923.73099999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-170.055000</v>
+        <v>-170.05500000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>80310.059348</v>
+        <v>80310.059347999995</v>
       </c>
       <c r="L6" s="1">
-        <v>22.308350</v>
+        <v>22.308350000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>947.678000</v>
+        <v>947.678</v>
       </c>
       <c r="N6" s="1">
-        <v>-121.193000</v>
+        <v>-121.193</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>80320.578044</v>
+        <v>80320.578043999994</v>
       </c>
       <c r="Q6" s="1">
-        <v>22.311272</v>
+        <v>22.311271999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>954.829000</v>
+        <v>954.82899999999995</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.872000</v>
+        <v>-104.872</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>80330.795096</v>
+        <v>80330.795096000002</v>
       </c>
       <c r="V6" s="1">
-        <v>22.314110</v>
+        <v>22.314109999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>961.891000</v>
+        <v>961.89099999999996</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.659800</v>
+        <v>-89.659800000000004</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>80341.594502</v>
+        <v>80341.594502000007</v>
       </c>
       <c r="AA6" s="1">
-        <v>22.317110</v>
+        <v>22.31711</v>
       </c>
       <c r="AB6" s="1">
-        <v>969.323000</v>
+        <v>969.32299999999998</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.739600</v>
+        <v>-77.739599999999996</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>80352.144396</v>
+        <v>80352.144396000003</v>
       </c>
       <c r="AF6" s="1">
-        <v>22.320040</v>
+        <v>22.320039999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>974.126000</v>
+        <v>974.12599999999998</v>
       </c>
       <c r="AH6" s="1">
-        <v>-75.398700</v>
+        <v>-75.398700000000005</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>80362.606553</v>
+        <v>80362.606553000005</v>
       </c>
       <c r="AK6" s="1">
-        <v>22.322946</v>
+        <v>22.322946000000002</v>
       </c>
       <c r="AL6" s="1">
-        <v>981.547000</v>
+        <v>981.54700000000003</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.784400</v>
+        <v>-79.784400000000005</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>80373.284185</v>
+        <v>80373.284184999997</v>
       </c>
       <c r="AP6" s="1">
-        <v>22.325912</v>
+        <v>22.325911999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>989.729000</v>
+        <v>989.72900000000004</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.081900</v>
+        <v>-91.081900000000005</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>80384.300529</v>
@@ -1644,1480 +2060,1480 @@
         <v>22.328972</v>
       </c>
       <c r="AV6" s="1">
-        <v>999.633000</v>
+        <v>999.63300000000004</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.443000</v>
+        <v>-108.443</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>80395.678260</v>
+        <v>80395.678260000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>22.332133</v>
+        <v>22.332132999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1007.940000</v>
+        <v>1007.94</v>
       </c>
       <c r="BB6" s="1">
-        <v>-123.874000</v>
+        <v>-123.874</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>80406.711797</v>
+        <v>80406.711796999996</v>
       </c>
       <c r="BE6" s="1">
-        <v>22.335198</v>
+        <v>22.335197999999998</v>
       </c>
       <c r="BF6" s="1">
-        <v>1046.760000</v>
+        <v>1046.76</v>
       </c>
       <c r="BG6" s="1">
-        <v>-194.808000</v>
+        <v>-194.80799999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>80417.765605</v>
+        <v>80417.765604999993</v>
       </c>
       <c r="BJ6" s="1">
-        <v>22.338268</v>
+        <v>22.338267999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1113.680000</v>
+        <v>1113.68</v>
       </c>
       <c r="BL6" s="1">
-        <v>-309.372000</v>
+        <v>-309.37200000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>80429.379195</v>
+        <v>80429.379195000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>22.341494</v>
+        <v>22.341494000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1221.880000</v>
+        <v>1221.8800000000001</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-488.742000</v>
+        <v>-488.74200000000002</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>80440.165960</v>
+        <v>80440.165959999998</v>
       </c>
       <c r="BT6" s="1">
-        <v>22.344491</v>
+        <v>22.344491000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1342.800000</v>
+        <v>1342.8</v>
       </c>
       <c r="BV6" s="1">
-        <v>-684.311000</v>
+        <v>-684.31100000000004</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>80450.867610</v>
+        <v>80450.867610000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>22.347463</v>
+        <v>22.347463000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1477.240000</v>
+        <v>1477.24</v>
       </c>
       <c r="CA6" s="1">
-        <v>-892.519000</v>
+        <v>-892.51900000000001</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>80462.673387</v>
+        <v>80462.673387000003</v>
       </c>
       <c r="CD6" s="1">
-        <v>22.350743</v>
+        <v>22.350743000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>1826.140000</v>
+        <v>1826.14</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1385.530000</v>
+        <v>-1385.53</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>80290.141392</v>
+        <v>80290.141392000005</v>
       </c>
       <c r="B7" s="1">
-        <v>22.302817</v>
+        <v>22.302817000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>905.346000</v>
+        <v>905.346</v>
       </c>
       <c r="D7" s="1">
-        <v>-200.294000</v>
+        <v>-200.29400000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>80300.243521</v>
+        <v>80300.243520999997</v>
       </c>
       <c r="G7" s="1">
-        <v>22.305623</v>
+        <v>22.305623000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>923.903000</v>
+        <v>923.90300000000002</v>
       </c>
       <c r="I7" s="1">
-        <v>-170.290000</v>
+        <v>-170.29</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>80310.405059</v>
+        <v>80310.405058999997</v>
       </c>
       <c r="L7" s="1">
         <v>22.308446</v>
       </c>
       <c r="M7" s="1">
-        <v>947.795000</v>
+        <v>947.79499999999996</v>
       </c>
       <c r="N7" s="1">
-        <v>-121.263000</v>
+        <v>-121.26300000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>80321.272901</v>
+        <v>80321.272901000004</v>
       </c>
       <c r="Q7" s="1">
-        <v>22.311465</v>
+        <v>22.311464999999998</v>
       </c>
       <c r="R7" s="1">
-        <v>954.878000</v>
+        <v>954.87800000000004</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.864000</v>
+        <v>-104.864</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>80331.482057</v>
+        <v>80331.482057000001</v>
       </c>
       <c r="V7" s="1">
         <v>22.314301</v>
       </c>
       <c r="W7" s="1">
-        <v>961.765000</v>
+        <v>961.76499999999999</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.749000</v>
+        <v>-89.748999999999995</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>80341.943674</v>
+        <v>80341.943673999995</v>
       </c>
       <c r="AA7" s="1">
         <v>22.317207</v>
       </c>
       <c r="AB7" s="1">
-        <v>969.258000</v>
+        <v>969.25800000000004</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.787500</v>
+        <v>-77.787499999999994</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>80352.529789</v>
+        <v>80352.529788999993</v>
       </c>
       <c r="AF7" s="1">
-        <v>22.320147</v>
+        <v>22.320146999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>974.149000</v>
+        <v>974.149</v>
       </c>
       <c r="AH7" s="1">
-        <v>-75.376800</v>
+        <v>-75.376800000000003</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>80362.956190</v>
+        <v>80362.956189999997</v>
       </c>
       <c r="AK7" s="1">
-        <v>22.323043</v>
+        <v>22.323042999999998</v>
       </c>
       <c r="AL7" s="1">
-        <v>981.509000</v>
+        <v>981.50900000000001</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.781200</v>
+        <v>-79.781199999999998</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>80373.957488</v>
       </c>
       <c r="AP7" s="1">
-        <v>22.326099</v>
+        <v>22.326098999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>989.738000</v>
+        <v>989.73800000000006</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.076300</v>
+        <v>-91.076300000000003</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>80384.980582</v>
+        <v>80384.980582000004</v>
       </c>
       <c r="AU7" s="1">
-        <v>22.329161</v>
+        <v>22.329160999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>999.653000</v>
+        <v>999.65300000000002</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.450000</v>
+        <v>-108.45</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>80396.077042</v>
+        <v>80396.077042000004</v>
       </c>
       <c r="AZ7" s="1">
-        <v>22.332244</v>
+        <v>22.332243999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1007.960000</v>
+        <v>1007.96</v>
       </c>
       <c r="BB7" s="1">
-        <v>-123.876000</v>
+        <v>-123.876</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>80407.073349</v>
+        <v>80407.073348999998</v>
       </c>
       <c r="BE7" s="1">
-        <v>22.335298</v>
+        <v>22.335298000000002</v>
       </c>
       <c r="BF7" s="1">
-        <v>1046.760000</v>
+        <v>1046.76</v>
       </c>
       <c r="BG7" s="1">
-        <v>-194.808000</v>
+        <v>-194.80799999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>80418.152491</v>
+        <v>80418.152491000001</v>
       </c>
       <c r="BJ7" s="1">
         <v>22.338376</v>
       </c>
       <c r="BK7" s="1">
-        <v>1113.680000</v>
+        <v>1113.68</v>
       </c>
       <c r="BL7" s="1">
-        <v>-309.364000</v>
+        <v>-309.36399999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>80429.774245</v>
+        <v>80429.774244999993</v>
       </c>
       <c r="BO7" s="1">
         <v>22.341604</v>
       </c>
       <c r="BP7" s="1">
-        <v>1221.850000</v>
+        <v>1221.8499999999999</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-488.785000</v>
+        <v>-488.78500000000003</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>80440.592983</v>
+        <v>80440.592982999995</v>
       </c>
       <c r="BT7" s="1">
-        <v>22.344609</v>
+        <v>22.344608999999998</v>
       </c>
       <c r="BU7" s="1">
-        <v>1342.690000</v>
+        <v>1342.69</v>
       </c>
       <c r="BV7" s="1">
-        <v>-684.316000</v>
+        <v>-684.31600000000003</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>80451.316987</v>
+        <v>80451.316986999998</v>
       </c>
       <c r="BY7" s="1">
-        <v>22.347588</v>
+        <v>22.347587999999998</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1477.220000</v>
+        <v>1477.22</v>
       </c>
       <c r="CA7" s="1">
-        <v>-892.486000</v>
+        <v>-892.48599999999999</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>80463.212539</v>
       </c>
       <c r="CD7" s="1">
-        <v>22.350892</v>
+        <v>22.350892000000002</v>
       </c>
       <c r="CE7" s="1">
-        <v>1826.830000</v>
+        <v>1826.83</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1384.320000</v>
+        <v>-1384.32</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>80290.483742</v>
+        <v>80290.483741999997</v>
       </c>
       <c r="B8" s="1">
-        <v>22.302912</v>
+        <v>22.302911999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>905.413000</v>
+        <v>905.41300000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-200.482000</v>
+        <v>-200.482</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>80300.586258</v>
+        <v>80300.586257999996</v>
       </c>
       <c r="G8" s="1">
-        <v>22.305718</v>
+        <v>22.305717999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>923.695000</v>
+        <v>923.69500000000005</v>
       </c>
       <c r="I8" s="1">
-        <v>-169.689000</v>
+        <v>-169.68899999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>80311.097970</v>
+        <v>80311.097970000003</v>
       </c>
       <c r="L8" s="1">
-        <v>22.308638</v>
+        <v>22.308637999999998</v>
       </c>
       <c r="M8" s="1">
-        <v>947.876000</v>
+        <v>947.87599999999998</v>
       </c>
       <c r="N8" s="1">
-        <v>-121.377000</v>
+        <v>-121.377</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>80321.624068</v>
+        <v>80321.624068000005</v>
       </c>
       <c r="Q8" s="1">
-        <v>22.311562</v>
+        <v>22.311561999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>954.913000</v>
+        <v>954.91300000000001</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.913000</v>
+        <v>-104.913</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>80331.825784</v>
+        <v>80331.825784000001</v>
       </c>
       <c r="V8" s="1">
-        <v>22.314396</v>
+        <v>22.314395999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>961.846000</v>
+        <v>961.846</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.665000</v>
+        <v>-89.665000000000006</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>80342.292858</v>
+        <v>80342.292858000001</v>
       </c>
       <c r="AA8" s="1">
         <v>22.317304</v>
       </c>
       <c r="AB8" s="1">
-        <v>969.236000</v>
+        <v>969.23599999999999</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.726500</v>
+        <v>-77.726500000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>80353.167675</v>
+        <v>80353.167675000004</v>
       </c>
       <c r="AF8" s="1">
-        <v>22.320324</v>
+        <v>22.320323999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>974.182000</v>
+        <v>974.18200000000002</v>
       </c>
       <c r="AH8" s="1">
-        <v>-75.319000</v>
+        <v>-75.319000000000003</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>80363.617367</v>
+        <v>80363.617366999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>22.323227</v>
+        <v>22.323226999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>981.534000</v>
+        <v>981.53399999999999</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.795000</v>
+        <v>-79.795000000000002</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>80374.391456</v>
+        <v>80374.391455999998</v>
       </c>
       <c r="AP8" s="1">
-        <v>22.326220</v>
+        <v>22.326219999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>989.739000</v>
+        <v>989.73900000000003</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.057900</v>
+        <v>-91.057900000000004</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>80385.422482</v>
+        <v>80385.422481999994</v>
       </c>
       <c r="AU8" s="1">
-        <v>22.329284</v>
+        <v>22.329284000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>999.639000</v>
+        <v>999.63900000000001</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.443000</v>
+        <v>-108.443</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>80396.460945</v>
+        <v>80396.460944999999</v>
       </c>
       <c r="AZ8" s="1">
-        <v>22.332350</v>
+        <v>22.332350000000002</v>
       </c>
       <c r="BA8" s="1">
-        <v>1007.960000</v>
+        <v>1007.96</v>
       </c>
       <c r="BB8" s="1">
-        <v>-123.874000</v>
+        <v>-123.874</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>80407.437412</v>
+        <v>80407.437411999999</v>
       </c>
       <c r="BE8" s="1">
-        <v>22.335399</v>
+        <v>22.335398999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1046.770000</v>
+        <v>1046.77</v>
       </c>
       <c r="BG8" s="1">
-        <v>-194.825000</v>
+        <v>-194.82499999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>80418.529459</v>
+        <v>80418.529458999998</v>
       </c>
       <c r="BJ8" s="1">
-        <v>22.338480</v>
+        <v>22.338480000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1113.690000</v>
+        <v>1113.69</v>
       </c>
       <c r="BL8" s="1">
-        <v>-309.398000</v>
+        <v>-309.39800000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>80430.208245</v>
+        <v>80430.208245000002</v>
       </c>
       <c r="BO8" s="1">
         <v>22.341725</v>
       </c>
       <c r="BP8" s="1">
-        <v>1221.920000</v>
+        <v>1221.92</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-488.815000</v>
+        <v>-488.815</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>80440.997718</v>
+        <v>80440.997717999999</v>
       </c>
       <c r="BT8" s="1">
-        <v>22.344722</v>
+        <v>22.344722000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1342.700000</v>
+        <v>1342.7</v>
       </c>
       <c r="BV8" s="1">
-        <v>-684.366000</v>
+        <v>-684.36599999999999</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>80451.774793</v>
+        <v>80451.774793000004</v>
       </c>
       <c r="BY8" s="1">
-        <v>22.347715</v>
+        <v>22.347715000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1477.230000</v>
+        <v>1477.23</v>
       </c>
       <c r="CA8" s="1">
-        <v>-892.404000</v>
+        <v>-892.404</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>80463.756153</v>
+        <v>80463.756152999995</v>
       </c>
       <c r="CD8" s="1">
-        <v>22.351043</v>
+        <v>22.351043000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>1825.510000</v>
+        <v>1825.51</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1384.840000</v>
+        <v>-1384.84</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>80291.163757</v>
+        <v>80291.163757000002</v>
       </c>
       <c r="B9" s="1">
-        <v>22.303101</v>
+        <v>22.303101000000002</v>
       </c>
       <c r="C9" s="1">
-        <v>905.289000</v>
+        <v>905.28899999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-200.257000</v>
+        <v>-200.25700000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>80301.281685</v>
+        <v>80301.281684999994</v>
       </c>
       <c r="G9" s="1">
-        <v>22.305912</v>
+        <v>22.305911999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>923.633000</v>
+        <v>923.63300000000004</v>
       </c>
       <c r="I9" s="1">
-        <v>-170.101000</v>
+        <v>-170.101</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>80311.445667</v>
+        <v>80311.445667000007</v>
       </c>
       <c r="L9" s="1">
-        <v>22.308735</v>
+        <v>22.308734999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>947.706000</v>
+        <v>947.70600000000002</v>
       </c>
       <c r="N9" s="1">
-        <v>-121.283000</v>
+        <v>-121.283</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>80321.973252</v>
+        <v>80321.973251999996</v>
       </c>
       <c r="Q9" s="1">
-        <v>22.311659</v>
+        <v>22.311658999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>954.846000</v>
+        <v>954.846</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.904000</v>
+        <v>-104.904</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>80332.171990</v>
+        <v>80332.171990000003</v>
       </c>
       <c r="V9" s="1">
-        <v>22.314492</v>
+        <v>22.314492000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>961.731000</v>
+        <v>961.73099999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.634100</v>
+        <v>-89.634100000000004</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>80342.965432</v>
+        <v>80342.965431999997</v>
       </c>
       <c r="AA9" s="1">
-        <v>22.317490</v>
+        <v>22.317489999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>969.323000</v>
+        <v>969.32299999999998</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.847000</v>
+        <v>-77.846999999999994</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>80353.524266</v>
+        <v>80353.524265999993</v>
       </c>
       <c r="AF9" s="1">
-        <v>22.320423</v>
+        <v>22.320423000000002</v>
       </c>
       <c r="AG9" s="1">
-        <v>974.189000</v>
+        <v>974.18899999999996</v>
       </c>
       <c r="AH9" s="1">
-        <v>-75.402700</v>
+        <v>-75.402699999999996</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>80364.000764</v>
+        <v>80364.000763999997</v>
       </c>
       <c r="AK9" s="1">
-        <v>22.323334</v>
+        <v>22.323333999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>981.527000</v>
+        <v>981.52700000000004</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.792900</v>
+        <v>-79.792900000000003</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>80374.750081</v>
+        <v>80374.750081000006</v>
       </c>
       <c r="AP9" s="1">
-        <v>22.326319</v>
+        <v>22.326319000000002</v>
       </c>
       <c r="AQ9" s="1">
-        <v>989.749000</v>
+        <v>989.74900000000002</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.067700</v>
+        <v>-91.067700000000002</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>80385.787040</v>
+        <v>80385.787039999996</v>
       </c>
       <c r="AU9" s="1">
-        <v>22.329385</v>
+        <v>22.329384999999998</v>
       </c>
       <c r="AV9" s="1">
-        <v>999.643000</v>
+        <v>999.64300000000003</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.446000</v>
+        <v>-108.446</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>80396.820082</v>
+        <v>80396.820082000006</v>
       </c>
       <c r="AZ9" s="1">
-        <v>22.332450</v>
+        <v>22.332450000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1007.940000</v>
+        <v>1007.94</v>
       </c>
       <c r="BB9" s="1">
-        <v>-123.882000</v>
+        <v>-123.88200000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>80407.859043</v>
+        <v>80407.859043000004</v>
       </c>
       <c r="BE9" s="1">
-        <v>22.335516</v>
+        <v>22.335515999999998</v>
       </c>
       <c r="BF9" s="1">
-        <v>1046.770000</v>
+        <v>1046.77</v>
       </c>
       <c r="BG9" s="1">
-        <v>-194.822000</v>
+        <v>-194.822</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>80418.954548</v>
+        <v>80418.954547999994</v>
       </c>
       <c r="BJ9" s="1">
-        <v>22.338598</v>
+        <v>22.338598000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1113.710000</v>
+        <v>1113.71</v>
       </c>
       <c r="BL9" s="1">
-        <v>-309.399000</v>
+        <v>-309.399</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>80430.594170</v>
+        <v>80430.594169999997</v>
       </c>
       <c r="BO9" s="1">
         <v>22.341832</v>
       </c>
       <c r="BP9" s="1">
-        <v>1221.890000</v>
+        <v>1221.8900000000001</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-488.786000</v>
+        <v>-488.786</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>80441.413402</v>
+        <v>80441.413402000006</v>
       </c>
       <c r="BT9" s="1">
-        <v>22.344837</v>
+        <v>22.344836999999998</v>
       </c>
       <c r="BU9" s="1">
-        <v>1342.560000</v>
+        <v>1342.56</v>
       </c>
       <c r="BV9" s="1">
-        <v>-684.462000</v>
+        <v>-684.46199999999999</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>80452.221192</v>
+        <v>80452.221191999997</v>
       </c>
       <c r="BY9" s="1">
         <v>22.347839</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1477.290000</v>
+        <v>1477.29</v>
       </c>
       <c r="CA9" s="1">
-        <v>-892.585000</v>
+        <v>-892.58500000000004</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>80464.295305</v>
+        <v>80464.295305000007</v>
       </c>
       <c r="CD9" s="1">
-        <v>22.351193</v>
+        <v>22.351192999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>1827.300000</v>
+        <v>1827.3</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1385.290000</v>
+        <v>-1385.29</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>80291.508013</v>
+        <v>80291.508012999999</v>
       </c>
       <c r="B10" s="1">
-        <v>22.303197</v>
+        <v>22.303197000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>905.263000</v>
+        <v>905.26300000000003</v>
       </c>
       <c r="D10" s="1">
-        <v>-200.164000</v>
+        <v>-200.16399999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>80301.627397</v>
+        <v>80301.627397000004</v>
       </c>
       <c r="G10" s="1">
-        <v>22.306008</v>
+        <v>22.306007999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>923.918000</v>
+        <v>923.91800000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-170.062000</v>
+        <v>-170.06200000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>80311.795345</v>
+        <v>80311.795345000006</v>
       </c>
       <c r="L10" s="1">
-        <v>22.308832</v>
+        <v>22.308831999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>947.698000</v>
+        <v>947.69799999999998</v>
       </c>
       <c r="N10" s="1">
-        <v>-121.255000</v>
+        <v>-121.255</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>80322.647315</v>
+        <v>80322.647314999995</v>
       </c>
       <c r="Q10" s="1">
-        <v>22.311846</v>
+        <v>22.311845999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>954.836000</v>
+        <v>954.83600000000001</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.908000</v>
+        <v>-104.908</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>80332.827237</v>
+        <v>80332.827237000005</v>
       </c>
       <c r="V10" s="1">
         <v>22.314674</v>
       </c>
       <c r="W10" s="1">
-        <v>961.956000</v>
+        <v>961.95600000000002</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.647200</v>
+        <v>-89.647199999999998</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>80343.336440</v>
+        <v>80343.336439999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>22.317593</v>
+        <v>22.317592999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>969.317000</v>
+        <v>969.31700000000001</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.806500</v>
+        <v>-77.8065</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>80353.872956</v>
+        <v>80353.872956000007</v>
       </c>
       <c r="AF10" s="1">
-        <v>22.320520</v>
+        <v>22.320519999999998</v>
       </c>
       <c r="AG10" s="1">
-        <v>974.159000</v>
+        <v>974.15899999999999</v>
       </c>
       <c r="AH10" s="1">
-        <v>-75.342000</v>
+        <v>-75.341999999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>80364.349948</v>
+        <v>80364.349948000003</v>
       </c>
       <c r="AK10" s="1">
-        <v>22.323431</v>
+        <v>22.323430999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>981.558000</v>
+        <v>981.55799999999999</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.791700</v>
+        <v>-79.791700000000006</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>80375.113133</v>
+        <v>80375.113133000006</v>
       </c>
       <c r="AP10" s="1">
-        <v>22.326420</v>
+        <v>22.326419999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>989.727000</v>
+        <v>989.72699999999998</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.082900</v>
+        <v>-91.082899999999995</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>80386.148623</v>
+        <v>80386.148623000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>22.329486</v>
+        <v>22.329485999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>999.649000</v>
+        <v>999.649</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.449000</v>
+        <v>-108.449</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>80397.253056</v>
+        <v>80397.253056000001</v>
       </c>
       <c r="AZ10" s="1">
-        <v>22.332570</v>
+        <v>22.33257</v>
       </c>
       <c r="BA10" s="1">
-        <v>1007.960000</v>
+        <v>1007.96</v>
       </c>
       <c r="BB10" s="1">
-        <v>-123.870000</v>
+        <v>-123.87</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>80408.159586</v>
+        <v>80408.159585999994</v>
       </c>
       <c r="BE10" s="1">
-        <v>22.335600</v>
+        <v>22.335599999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1046.780000</v>
+        <v>1046.78</v>
       </c>
       <c r="BG10" s="1">
-        <v>-194.831000</v>
+        <v>-194.83099999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>80419.281387</v>
+        <v>80419.281386999995</v>
       </c>
       <c r="BJ10" s="1">
-        <v>22.338689</v>
+        <v>22.338688999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1113.700000</v>
+        <v>1113.7</v>
       </c>
       <c r="BL10" s="1">
-        <v>-309.390000</v>
+        <v>-309.39</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>80431.015731</v>
+        <v>80431.015731000007</v>
       </c>
       <c r="BO10" s="1">
         <v>22.341949</v>
       </c>
       <c r="BP10" s="1">
-        <v>1221.850000</v>
+        <v>1221.8499999999999</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-488.791000</v>
+        <v>-488.791</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>80441.829510</v>
+        <v>80441.829509999996</v>
       </c>
       <c r="BT10" s="1">
         <v>22.344953</v>
       </c>
       <c r="BU10" s="1">
-        <v>1342.550000</v>
+        <v>1342.55</v>
       </c>
       <c r="BV10" s="1">
-        <v>-684.523000</v>
+        <v>-684.52300000000002</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>80452.679500</v>
+        <v>80452.679499999998</v>
       </c>
       <c r="BY10" s="1">
-        <v>22.347967</v>
+        <v>22.347967000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1477.320000</v>
+        <v>1477.32</v>
       </c>
       <c r="CA10" s="1">
-        <v>-892.600000</v>
+        <v>-892.6</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>80464.833463</v>
+        <v>80464.833463000003</v>
       </c>
       <c r="CD10" s="1">
         <v>22.351343</v>
       </c>
       <c r="CE10" s="1">
-        <v>1825.680000</v>
+        <v>1825.68</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1383.980000</v>
+        <v>-1383.98</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>80291.849228</v>
+        <v>80291.849228000006</v>
       </c>
       <c r="B11" s="1">
-        <v>22.303291</v>
+        <v>22.303291000000002</v>
       </c>
       <c r="C11" s="1">
-        <v>905.304000</v>
+        <v>905.30399999999997</v>
       </c>
       <c r="D11" s="1">
-        <v>-200.233000</v>
+        <v>-200.233</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>80302.284099</v>
+        <v>80302.284098999997</v>
       </c>
       <c r="G11" s="1">
-        <v>22.306190</v>
+        <v>22.306190000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>923.182000</v>
+        <v>923.18200000000002</v>
       </c>
       <c r="I11" s="1">
-        <v>-169.985000</v>
+        <v>-169.98500000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>80312.461008</v>
+        <v>80312.461007999998</v>
       </c>
       <c r="L11" s="1">
-        <v>22.309017</v>
+        <v>22.309017000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>947.912000</v>
+        <v>947.91200000000003</v>
       </c>
       <c r="N11" s="1">
-        <v>-121.216000</v>
+        <v>-121.21599999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>80323.017344</v>
+        <v>80323.017344000007</v>
       </c>
       <c r="Q11" s="1">
-        <v>22.311949</v>
+        <v>22.311948999999998</v>
       </c>
       <c r="R11" s="1">
-        <v>954.844000</v>
+        <v>954.84400000000005</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.918000</v>
+        <v>-104.91800000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>80333.203173</v>
+        <v>80333.203173000002</v>
       </c>
       <c r="V11" s="1">
-        <v>22.314779</v>
+        <v>22.314779000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>961.899000</v>
+        <v>961.899</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.689800</v>
+        <v>-89.689800000000005</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>80343.686677</v>
+        <v>80343.686677000005</v>
       </c>
       <c r="AA11" s="1">
         <v>22.317691</v>
       </c>
       <c r="AB11" s="1">
-        <v>969.272000</v>
+        <v>969.27200000000005</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.809800</v>
+        <v>-77.809799999999996</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>80354.215689</v>
+        <v>80354.215689000004</v>
       </c>
       <c r="AF11" s="1">
         <v>22.320615</v>
       </c>
       <c r="AG11" s="1">
-        <v>974.151000</v>
+        <v>974.15099999999995</v>
       </c>
       <c r="AH11" s="1">
-        <v>-75.298000</v>
+        <v>-75.298000000000002</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>80364.696683</v>
+        <v>80364.696683000002</v>
       </c>
       <c r="AK11" s="1">
-        <v>22.323527</v>
+        <v>22.323526999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>981.522000</v>
+        <v>981.52200000000005</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.771600</v>
+        <v>-79.771600000000007</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>80375.538207</v>
+        <v>80375.538207000005</v>
       </c>
       <c r="AP11" s="1">
-        <v>22.326538</v>
+        <v>22.326537999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>989.726000</v>
+        <v>989.726</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.077300</v>
+        <v>-91.077299999999994</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>80386.584111</v>
+        <v>80386.584111000004</v>
       </c>
       <c r="AU11" s="1">
-        <v>22.329607</v>
+        <v>22.329606999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>999.634000</v>
+        <v>999.63400000000001</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.450000</v>
+        <v>-108.45</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>80397.539249</v>
+        <v>80397.539248999994</v>
       </c>
       <c r="AZ11" s="1">
-        <v>22.332650</v>
+        <v>22.332650000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1007.950000</v>
+        <v>1007.95</v>
       </c>
       <c r="BB11" s="1">
-        <v>-123.869000</v>
+        <v>-123.869</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>80408.519218</v>
+        <v>80408.519218000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>22.335700</v>
+        <v>22.335699999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1046.770000</v>
+        <v>1046.77</v>
       </c>
       <c r="BG11" s="1">
-        <v>-194.829000</v>
+        <v>-194.82900000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>80419.664787</v>
+        <v>80419.664787000002</v>
       </c>
       <c r="BJ11" s="1">
-        <v>22.338796</v>
+        <v>22.338795999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1113.690000</v>
+        <v>1113.69</v>
       </c>
       <c r="BL11" s="1">
-        <v>-309.372000</v>
+        <v>-309.37200000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>80431.411075</v>
+        <v>80431.411074999996</v>
       </c>
       <c r="BO11" s="1">
-        <v>22.342059</v>
+        <v>22.342058999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1221.890000</v>
+        <v>1221.8900000000001</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-488.768000</v>
+        <v>-488.76799999999997</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>80442.250117</v>
+        <v>80442.250117000003</v>
       </c>
       <c r="BT11" s="1">
-        <v>22.345069</v>
+        <v>22.345068999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1342.570000</v>
+        <v>1342.57</v>
       </c>
       <c r="BV11" s="1">
-        <v>-684.604000</v>
+        <v>-684.60400000000004</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>80453.125899</v>
+        <v>80453.125899000006</v>
       </c>
       <c r="BY11" s="1">
         <v>22.348091</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1477.320000</v>
+        <v>1477.32</v>
       </c>
       <c r="CA11" s="1">
-        <v>-892.579000</v>
+        <v>-892.57899999999995</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>80465.374598</v>
+        <v>80465.374597999995</v>
       </c>
       <c r="CD11" s="1">
-        <v>22.351493</v>
+        <v>22.351493000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1826.250000</v>
+        <v>1826.25</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1385.530000</v>
+        <v>-1385.53</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>80292.504972</v>
+        <v>80292.504971999995</v>
       </c>
       <c r="B12" s="1">
-        <v>22.303474</v>
+        <v>22.303474000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>905.439000</v>
+        <v>905.43899999999996</v>
       </c>
       <c r="D12" s="1">
-        <v>-200.136000</v>
+        <v>-200.136</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>80302.662509</v>
+        <v>80302.662509000002</v>
       </c>
       <c r="G12" s="1">
-        <v>22.306295</v>
+        <v>22.306294999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>923.809000</v>
+        <v>923.80899999999997</v>
       </c>
       <c r="I12" s="1">
-        <v>-169.871000</v>
+        <v>-169.87100000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>80312.832976</v>
+        <v>80312.832976000005</v>
       </c>
       <c r="L12" s="1">
-        <v>22.309120</v>
+        <v>22.30912</v>
       </c>
       <c r="M12" s="1">
-        <v>947.700000</v>
+        <v>947.7</v>
       </c>
       <c r="N12" s="1">
-        <v>-121.174000</v>
+        <v>-121.17400000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>80323.362553</v>
+        <v>80323.362552999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>22.312045</v>
+        <v>22.312045000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>954.856000</v>
+        <v>954.85599999999999</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.876000</v>
+        <v>-104.876</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>80333.546901</v>
+        <v>80333.546900999994</v>
       </c>
       <c r="V12" s="1">
         <v>22.314874</v>
       </c>
       <c r="W12" s="1">
-        <v>961.828000</v>
+        <v>961.82799999999997</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.617600</v>
+        <v>-89.617599999999996</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>80344.037784</v>
@@ -3126,1343 +3542,1343 @@
         <v>22.317788</v>
       </c>
       <c r="AB12" s="1">
-        <v>969.273000</v>
+        <v>969.27300000000002</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.823700</v>
+        <v>-77.823700000000002</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>80354.632361</v>
+        <v>80354.632360999996</v>
       </c>
       <c r="AF12" s="1">
-        <v>22.320731</v>
+        <v>22.320730999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>974.105000</v>
+        <v>974.10500000000002</v>
       </c>
       <c r="AH12" s="1">
-        <v>-75.335300</v>
+        <v>-75.335300000000004</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>80365.127179</v>
+        <v>80365.127179000003</v>
       </c>
       <c r="AK12" s="1">
         <v>22.323646</v>
       </c>
       <c r="AL12" s="1">
-        <v>981.553000</v>
+        <v>981.553</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.806700</v>
+        <v>-79.806700000000006</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>80375.830349</v>
+        <v>80375.830348999996</v>
       </c>
       <c r="AP12" s="1">
-        <v>22.326620</v>
+        <v>22.326619999999998</v>
       </c>
       <c r="AQ12" s="1">
-        <v>989.731000</v>
+        <v>989.73099999999999</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.075200</v>
+        <v>-91.075199999999995</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>80386.879728</v>
       </c>
       <c r="AU12" s="1">
-        <v>22.329689</v>
+        <v>22.329688999999998</v>
       </c>
       <c r="AV12" s="1">
-        <v>999.631000</v>
+        <v>999.63099999999997</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.442000</v>
+        <v>-108.44199999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>80397.898352</v>
+        <v>80397.898352000004</v>
       </c>
       <c r="AZ12" s="1">
-        <v>22.332750</v>
+        <v>22.332750000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1007.950000</v>
+        <v>1007.95</v>
       </c>
       <c r="BB12" s="1">
-        <v>-123.885000</v>
+        <v>-123.88500000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>80408.881265</v>
+        <v>80408.881265000004</v>
       </c>
       <c r="BE12" s="1">
-        <v>22.335800</v>
+        <v>22.335799999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1046.760000</v>
+        <v>1046.76</v>
       </c>
       <c r="BG12" s="1">
-        <v>-194.820000</v>
+        <v>-194.82</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>80420.054649</v>
+        <v>80420.054648999998</v>
       </c>
       <c r="BJ12" s="1">
-        <v>22.338904</v>
+        <v>22.338903999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1113.690000</v>
+        <v>1113.69</v>
       </c>
       <c r="BL12" s="1">
-        <v>-309.375000</v>
+        <v>-309.375</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>80431.839619</v>
+        <v>80431.839619000006</v>
       </c>
       <c r="BO12" s="1">
-        <v>22.342178</v>
+        <v>22.342178000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1221.880000</v>
+        <v>1221.8800000000001</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-488.762000</v>
+        <v>-488.762</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>80442.661849</v>
+        <v>80442.661848999996</v>
       </c>
       <c r="BT12" s="1">
         <v>22.345184</v>
       </c>
       <c r="BU12" s="1">
-        <v>1342.510000</v>
+        <v>1342.51</v>
       </c>
       <c r="BV12" s="1">
-        <v>-684.667000</v>
+        <v>-684.66700000000003</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>80453.550472</v>
+        <v>80453.550472000003</v>
       </c>
       <c r="BY12" s="1">
         <v>22.348208</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1477.250000</v>
+        <v>1477.25</v>
       </c>
       <c r="CA12" s="1">
-        <v>-892.618000</v>
+        <v>-892.61800000000005</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>80465.912791</v>
+        <v>80465.912790999995</v>
       </c>
       <c r="CD12" s="1">
-        <v>22.351642</v>
+        <v>22.351641999999998</v>
       </c>
       <c r="CE12" s="1">
-        <v>1826.750000</v>
+        <v>1826.75</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1384.130000</v>
+        <v>-1384.13</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>80292.873962</v>
+        <v>80292.873961999998</v>
       </c>
       <c r="B13" s="1">
         <v>22.303576</v>
       </c>
       <c r="C13" s="1">
-        <v>905.292000</v>
+        <v>905.29200000000003</v>
       </c>
       <c r="D13" s="1">
-        <v>-200.313000</v>
+        <v>-200.31299999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>80303.008717</v>
+        <v>80303.008717000004</v>
       </c>
       <c r="G13" s="1">
-        <v>22.306391</v>
+        <v>22.306391000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>923.142000</v>
+        <v>923.14200000000005</v>
       </c>
       <c r="I13" s="1">
-        <v>-170.333000</v>
+        <v>-170.333</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>80313.176208</v>
+        <v>80313.176208000004</v>
       </c>
       <c r="L13" s="1">
-        <v>22.309216</v>
+        <v>22.309215999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>947.890000</v>
+        <v>947.89</v>
       </c>
       <c r="N13" s="1">
-        <v>-121.298000</v>
+        <v>-121.298</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>80323.712225</v>
+        <v>80323.712224999996</v>
       </c>
       <c r="Q13" s="1">
-        <v>22.312142</v>
+        <v>22.312142000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>954.875000</v>
+        <v>954.875</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.911000</v>
+        <v>-104.911</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>80333.890133</v>
+        <v>80333.890132999994</v>
       </c>
       <c r="V13" s="1">
-        <v>22.314969</v>
+        <v>22.314969000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>961.852000</v>
+        <v>961.85199999999998</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.689600</v>
+        <v>-89.689599999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>80344.470102</v>
+        <v>80344.470102000007</v>
       </c>
       <c r="AA13" s="1">
-        <v>22.317908</v>
+        <v>22.317907999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>969.288000</v>
+        <v>969.28800000000001</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.729500</v>
+        <v>-77.729500000000002</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>80354.913064</v>
+        <v>80354.913063999993</v>
       </c>
       <c r="AF13" s="1">
-        <v>22.320809</v>
+        <v>22.320809000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>974.131000</v>
+        <v>974.13099999999997</v>
       </c>
       <c r="AH13" s="1">
-        <v>-75.369900</v>
+        <v>-75.369900000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>80365.393568</v>
       </c>
       <c r="AK13" s="1">
-        <v>22.323720</v>
+        <v>22.323720000000002</v>
       </c>
       <c r="AL13" s="1">
-        <v>981.558000</v>
+        <v>981.55799999999999</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.793700</v>
+        <v>-79.793700000000001</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>80376.192428</v>
+        <v>80376.192427999995</v>
       </c>
       <c r="AP13" s="1">
-        <v>22.326720</v>
+        <v>22.326720000000002</v>
       </c>
       <c r="AQ13" s="1">
-        <v>989.725000</v>
+        <v>989.72500000000002</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.065700</v>
+        <v>-91.065700000000007</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>80387.243295</v>
+        <v>80387.243294999993</v>
       </c>
       <c r="AU13" s="1">
-        <v>22.329790</v>
+        <v>22.329789999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>999.652000</v>
+        <v>999.65200000000004</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.437000</v>
+        <v>-108.437</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>80398.258479</v>
+        <v>80398.258478999996</v>
       </c>
       <c r="AZ13" s="1">
-        <v>22.332850</v>
+        <v>22.332850000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1007.960000</v>
+        <v>1007.96</v>
       </c>
       <c r="BB13" s="1">
-        <v>-123.886000</v>
+        <v>-123.886</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>80409.600464</v>
+        <v>80409.600464000003</v>
       </c>
       <c r="BE13" s="1">
-        <v>22.336000</v>
+        <v>22.335999999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1046.760000</v>
+        <v>1046.76</v>
       </c>
       <c r="BG13" s="1">
-        <v>-194.813000</v>
+        <v>-194.81299999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>80420.803105</v>
+        <v>80420.803104999999</v>
       </c>
       <c r="BJ13" s="1">
         <v>22.339112</v>
       </c>
       <c r="BK13" s="1">
-        <v>1113.680000</v>
+        <v>1113.68</v>
       </c>
       <c r="BL13" s="1">
-        <v>-309.400000</v>
+        <v>-309.39999999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>80432.227963</v>
+        <v>80432.227962999998</v>
       </c>
       <c r="BO13" s="1">
-        <v>22.342286</v>
+        <v>22.342286000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1221.900000</v>
+        <v>1221.9000000000001</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-488.775000</v>
+        <v>-488.77499999999998</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>80443.076948</v>
+        <v>80443.076948000002</v>
       </c>
       <c r="BT13" s="1">
-        <v>22.345299</v>
+        <v>22.345299000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1342.580000</v>
+        <v>1342.58</v>
       </c>
       <c r="BV13" s="1">
-        <v>-684.715000</v>
+        <v>-684.71500000000003</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>80453.970086</v>
+        <v>80453.970086000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>22.348325</v>
+        <v>22.348324999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1477.270000</v>
+        <v>1477.27</v>
       </c>
       <c r="CA13" s="1">
-        <v>-892.450000</v>
+        <v>-892.45</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>80466.766870</v>
+        <v>80466.766870000007</v>
       </c>
       <c r="CD13" s="1">
-        <v>22.351880</v>
+        <v>22.351880000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>1826.810000</v>
+        <v>1826.81</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1385.460000</v>
+        <v>-1385.46</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>80293.217226</v>
+        <v>80293.217225999993</v>
       </c>
       <c r="B14" s="1">
-        <v>22.303671</v>
+        <v>22.303671000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>905.399000</v>
+        <v>905.399</v>
       </c>
       <c r="D14" s="1">
-        <v>-200.320000</v>
+        <v>-200.32</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>80303.350960</v>
+        <v>80303.350959999996</v>
       </c>
       <c r="G14" s="1">
         <v>22.306486</v>
       </c>
       <c r="H14" s="1">
-        <v>923.402000</v>
+        <v>923.40200000000004</v>
       </c>
       <c r="I14" s="1">
-        <v>-169.748000</v>
+        <v>-169.74799999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>80313.525919</v>
+        <v>80313.525919000007</v>
       </c>
       <c r="L14" s="1">
         <v>22.309313</v>
       </c>
       <c r="M14" s="1">
-        <v>947.780000</v>
+        <v>947.78</v>
       </c>
       <c r="N14" s="1">
-        <v>-121.202000</v>
+        <v>-121.202</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>80324.142753</v>
+        <v>80324.142752999993</v>
       </c>
       <c r="Q14" s="1">
         <v>22.312262</v>
       </c>
       <c r="R14" s="1">
-        <v>954.837000</v>
+        <v>954.83699999999999</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.917000</v>
+        <v>-104.917</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>80334.331572</v>
+        <v>80334.331571999996</v>
       </c>
       <c r="V14" s="1">
         <v>22.315092</v>
       </c>
       <c r="W14" s="1">
-        <v>961.829000</v>
+        <v>961.82899999999995</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.651000</v>
+        <v>-89.650999999999996</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>80344.741110</v>
+        <v>80344.741110000003</v>
       </c>
       <c r="AA14" s="1">
-        <v>22.317984</v>
+        <v>22.317983999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>969.318000</v>
+        <v>969.31799999999998</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.718300</v>
+        <v>-77.718299999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>80355.256824</v>
+        <v>80355.256823999996</v>
       </c>
       <c r="AF14" s="1">
         <v>22.320905</v>
       </c>
       <c r="AG14" s="1">
-        <v>974.134000</v>
+        <v>974.13400000000001</v>
       </c>
       <c r="AH14" s="1">
-        <v>-75.373300</v>
+        <v>-75.3733</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>80365.741226</v>
+        <v>80365.741225999998</v>
       </c>
       <c r="AK14" s="1">
-        <v>22.323817</v>
+        <v>22.323816999999998</v>
       </c>
       <c r="AL14" s="1">
-        <v>981.554000</v>
+        <v>981.55399999999997</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.812800</v>
+        <v>-79.812799999999996</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>80376.552062</v>
+        <v>80376.552062000002</v>
       </c>
       <c r="AP14" s="1">
-        <v>22.326820</v>
+        <v>22.326820000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>989.720000</v>
+        <v>989.72</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.069100</v>
+        <v>-91.069100000000006</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>80387.970957</v>
+        <v>80387.970956999998</v>
       </c>
       <c r="AU14" s="1">
-        <v>22.329992</v>
+        <v>22.329992000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>999.618000</v>
+        <v>999.61800000000005</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.438000</v>
+        <v>-108.438</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>80398.982110</v>
+        <v>80398.982109999997</v>
       </c>
       <c r="AZ14" s="1">
-        <v>22.333051</v>
+        <v>22.333051000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1007.960000</v>
+        <v>1007.96</v>
       </c>
       <c r="BB14" s="1">
-        <v>-123.879000</v>
+        <v>-123.879</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>80409.989329</v>
+        <v>80409.989329000004</v>
       </c>
       <c r="BE14" s="1">
-        <v>22.336108</v>
+        <v>22.336107999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1046.780000</v>
+        <v>1046.78</v>
       </c>
       <c r="BG14" s="1">
-        <v>-194.820000</v>
+        <v>-194.82</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>80421.205361</v>
       </c>
       <c r="BJ14" s="1">
-        <v>22.339224</v>
+        <v>22.339224000000002</v>
       </c>
       <c r="BK14" s="1">
-        <v>1113.680000</v>
+        <v>1113.68</v>
       </c>
       <c r="BL14" s="1">
-        <v>-309.425000</v>
+        <v>-309.42500000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>80432.654019</v>
+        <v>80432.654018999994</v>
       </c>
       <c r="BO14" s="1">
-        <v>22.342404</v>
+        <v>22.342403999999998</v>
       </c>
       <c r="BP14" s="1">
-        <v>1221.840000</v>
+        <v>1221.8399999999999</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-488.760000</v>
+        <v>-488.76</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>80443.813044</v>
+        <v>80443.813043999995</v>
       </c>
       <c r="BT14" s="1">
-        <v>22.345504</v>
+        <v>22.345503999999998</v>
       </c>
       <c r="BU14" s="1">
-        <v>1342.600000</v>
+        <v>1342.6</v>
       </c>
       <c r="BV14" s="1">
-        <v>-684.795000</v>
+        <v>-684.79499999999996</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>80454.889210</v>
+        <v>80454.889209999994</v>
       </c>
       <c r="BY14" s="1">
-        <v>22.348580</v>
+        <v>22.348579999999998</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1477.280000</v>
+        <v>1477.28</v>
       </c>
       <c r="CA14" s="1">
-        <v>-892.489000</v>
+        <v>-892.48900000000003</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>80466.992548</v>
+        <v>80466.992547999995</v>
       </c>
       <c r="CD14" s="1">
-        <v>22.351942</v>
+        <v>22.351942000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>1826.710000</v>
+        <v>1826.71</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1385.320000</v>
+        <v>-1385.32</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>80293.560425</v>
+        <v>80293.560425000003</v>
       </c>
       <c r="B15" s="1">
-        <v>22.303767</v>
+        <v>22.303767000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>905.471000</v>
+        <v>905.471</v>
       </c>
       <c r="D15" s="1">
-        <v>-200.240000</v>
+        <v>-200.24</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>80303.772589</v>
       </c>
       <c r="G15" s="1">
-        <v>22.306603</v>
+        <v>22.306602999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>923.399000</v>
+        <v>923.399</v>
       </c>
       <c r="I15" s="1">
-        <v>-169.900000</v>
+        <v>-169.9</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>80313.947519</v>
+        <v>80313.947518999994</v>
       </c>
       <c r="L15" s="1">
-        <v>22.309430</v>
+        <v>22.309429999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>947.730000</v>
+        <v>947.73</v>
       </c>
       <c r="N15" s="1">
-        <v>-121.252000</v>
+        <v>-121.252</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>80324.421009</v>
+        <v>80324.421008999998</v>
       </c>
       <c r="Q15" s="1">
-        <v>22.312339</v>
+        <v>22.312339000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>954.876000</v>
+        <v>954.87599999999998</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.961000</v>
+        <v>-104.961</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>80334.587507</v>
+        <v>80334.587507000004</v>
       </c>
       <c r="V15" s="1">
-        <v>22.315163</v>
+        <v>22.315162999999998</v>
       </c>
       <c r="W15" s="1">
-        <v>961.720000</v>
+        <v>961.72</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.633500</v>
+        <v>-89.633499999999998</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>80345.087317</v>
+        <v>80345.087316999998</v>
       </c>
       <c r="AA15" s="1">
-        <v>22.318080</v>
+        <v>22.318079999999998</v>
       </c>
       <c r="AB15" s="1">
-        <v>969.329000</v>
+        <v>969.32899999999995</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.812800</v>
+        <v>-77.812799999999996</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>80355.602204</v>
+        <v>80355.602203999995</v>
       </c>
       <c r="AF15" s="1">
-        <v>22.321001</v>
+        <v>22.321000999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>974.146000</v>
+        <v>974.14599999999996</v>
       </c>
       <c r="AH15" s="1">
-        <v>-75.371900</v>
+        <v>-75.371899999999997</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>80366.092394</v>
+        <v>80366.092394000007</v>
       </c>
       <c r="AK15" s="1">
         <v>22.323915</v>
       </c>
       <c r="AL15" s="1">
-        <v>981.534000</v>
+        <v>981.53399999999999</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.774100</v>
+        <v>-79.774100000000004</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>80377.280189</v>
+        <v>80377.280188999997</v>
       </c>
       <c r="AP15" s="1">
-        <v>22.327022</v>
+        <v>22.327021999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>989.714000</v>
+        <v>989.71400000000006</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.074200</v>
+        <v>-91.074200000000005</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>80388.338460</v>
+        <v>80388.338459999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>22.330094</v>
+        <v>22.330093999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>999.627000</v>
+        <v>999.62699999999995</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.428000</v>
+        <v>-108.428</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>80399.360076</v>
+        <v>80399.360075999997</v>
       </c>
       <c r="AZ15" s="1">
-        <v>22.333156</v>
+        <v>22.333155999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1007.970000</v>
+        <v>1007.97</v>
       </c>
       <c r="BB15" s="1">
-        <v>-123.873000</v>
+        <v>-123.873</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>80410.350417</v>
+        <v>80410.350416999994</v>
       </c>
       <c r="BE15" s="1">
-        <v>22.336208</v>
+        <v>22.336207999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1046.750000</v>
+        <v>1046.75</v>
       </c>
       <c r="BG15" s="1">
-        <v>-194.817000</v>
+        <v>-194.81700000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>80421.909184</v>
+        <v>80421.909184000004</v>
       </c>
       <c r="BJ15" s="1">
-        <v>22.339419</v>
+        <v>22.339418999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1113.720000</v>
+        <v>1113.72</v>
       </c>
       <c r="BL15" s="1">
-        <v>-309.379000</v>
+        <v>-309.37900000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>80433.355856</v>
+        <v>80433.355855999995</v>
       </c>
       <c r="BO15" s="1">
         <v>22.342599</v>
       </c>
       <c r="BP15" s="1">
-        <v>1221.870000</v>
+        <v>1221.8699999999999</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-488.789000</v>
+        <v>-488.78899999999999</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>80443.924152</v>
+        <v>80443.924152000007</v>
       </c>
       <c r="BT15" s="1">
-        <v>22.345534</v>
+        <v>22.345534000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1342.640000</v>
+        <v>1342.64</v>
       </c>
       <c r="BV15" s="1">
-        <v>-684.840000</v>
+        <v>-684.84</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>80455.240340</v>
+        <v>80455.240340000004</v>
       </c>
       <c r="BY15" s="1">
         <v>22.348678</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1477.230000</v>
+        <v>1477.23</v>
       </c>
       <c r="CA15" s="1">
-        <v>-892.516000</v>
+        <v>-892.51599999999996</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>80467.512852</v>
       </c>
       <c r="CD15" s="1">
-        <v>22.352087</v>
+        <v>22.352087000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>1826.820000</v>
+        <v>1826.82</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1384.150000</v>
+        <v>-1384.15</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>80293.986517</v>
+        <v>80293.986516999998</v>
       </c>
       <c r="B16" s="1">
-        <v>22.303885</v>
+        <v>22.303885000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>905.266000</v>
+        <v>905.26599999999996</v>
       </c>
       <c r="D16" s="1">
-        <v>-200.290000</v>
+        <v>-200.29</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>80304.048828</v>
+        <v>80304.048827999999</v>
       </c>
       <c r="G16" s="1">
-        <v>22.306680</v>
+        <v>22.30668</v>
       </c>
       <c r="H16" s="1">
-        <v>923.427000</v>
+        <v>923.42700000000002</v>
       </c>
       <c r="I16" s="1">
-        <v>-170.282000</v>
+        <v>-170.28200000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>80314.227759</v>
+        <v>80314.227759000001</v>
       </c>
       <c r="L16" s="1">
-        <v>22.309508</v>
+        <v>22.309508000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>947.776000</v>
+        <v>947.77599999999995</v>
       </c>
       <c r="N16" s="1">
-        <v>-121.125000</v>
+        <v>-121.125</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>80324.768704</v>
+        <v>80324.768704000002</v>
       </c>
       <c r="Q16" s="1">
-        <v>22.312436</v>
+        <v>22.312436000000002</v>
       </c>
       <c r="R16" s="1">
-        <v>954.890000</v>
+        <v>954.89</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.912000</v>
+        <v>-104.91200000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>80334.929747</v>
+        <v>80334.929747000002</v>
       </c>
       <c r="V16" s="1">
         <v>22.315258</v>
       </c>
       <c r="W16" s="1">
-        <v>961.843000</v>
+        <v>961.84299999999996</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.726700</v>
+        <v>-89.726699999999994</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>80345.439477</v>
+        <v>80345.439477000007</v>
       </c>
       <c r="AA16" s="1">
         <v>22.318178</v>
       </c>
       <c r="AB16" s="1">
-        <v>969.224000</v>
+        <v>969.22400000000005</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.700700</v>
+        <v>-77.700699999999998</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>80356.288471</v>
+        <v>80356.288471000007</v>
       </c>
       <c r="AF16" s="1">
-        <v>22.321191</v>
+        <v>22.321190999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>974.128000</v>
+        <v>974.12800000000004</v>
       </c>
       <c r="AH16" s="1">
-        <v>-75.405600</v>
+        <v>-75.405600000000007</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>80366.789769</v>
+        <v>80366.789768999995</v>
       </c>
       <c r="AK16" s="1">
-        <v>22.324108</v>
+        <v>22.324107999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>981.540000</v>
+        <v>981.54</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.784500</v>
+        <v>-79.784499999999994</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>80377.658108</v>
+        <v>80377.658108000003</v>
       </c>
       <c r="AP16" s="1">
-        <v>22.327127</v>
+        <v>22.327127000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>989.748000</v>
+        <v>989.74800000000005</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.062700</v>
+        <v>-91.062700000000007</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>80388.703020</v>
+        <v>80388.703020000001</v>
       </c>
       <c r="AU16" s="1">
         <v>22.330195</v>
       </c>
       <c r="AV16" s="1">
-        <v>999.648000</v>
+        <v>999.64800000000002</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.444000</v>
+        <v>-108.444</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>80399.739044</v>
+        <v>80399.739044000002</v>
       </c>
       <c r="AZ16" s="1">
         <v>22.333261</v>
       </c>
       <c r="BA16" s="1">
-        <v>1007.950000</v>
+        <v>1007.95</v>
       </c>
       <c r="BB16" s="1">
-        <v>-123.868000</v>
+        <v>-123.86799999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>80411.032414</v>
+        <v>80411.032414000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>22.336398</v>
+        <v>22.336397999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1046.770000</v>
+        <v>1046.77</v>
       </c>
       <c r="BG16" s="1">
-        <v>-194.808000</v>
+        <v>-194.80799999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>80422.331775</v>
+        <v>80422.331774999999</v>
       </c>
       <c r="BJ16" s="1">
         <v>22.339537</v>
       </c>
       <c r="BK16" s="1">
-        <v>1113.710000</v>
+        <v>1113.71</v>
       </c>
       <c r="BL16" s="1">
-        <v>-309.395000</v>
+        <v>-309.39499999999998</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>80433.485841</v>
+        <v>80433.485841000002</v>
       </c>
       <c r="BO16" s="1">
-        <v>22.342635</v>
+        <v>22.342635000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1221.900000</v>
+        <v>1221.9000000000001</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-488.764000</v>
+        <v>-488.76400000000001</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>80444.333314</v>
+        <v>80444.333314000003</v>
       </c>
       <c r="BT16" s="1">
-        <v>22.345648</v>
+        <v>22.345648000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1342.710000</v>
+        <v>1342.71</v>
       </c>
       <c r="BV16" s="1">
-        <v>-684.918000</v>
+        <v>-684.91800000000001</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>80455.663427</v>
+        <v>80455.663427000007</v>
       </c>
       <c r="BY16" s="1">
-        <v>22.348795</v>
+        <v>22.348794999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1477.290000</v>
+        <v>1477.29</v>
       </c>
       <c r="CA16" s="1">
-        <v>-892.537000</v>
+        <v>-892.53700000000003</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>80468.032164</v>
+        <v>80468.032164000004</v>
       </c>
       <c r="CD16" s="1">
         <v>22.352231</v>
       </c>
       <c r="CE16" s="1">
-        <v>1827.040000</v>
+        <v>1827.04</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1384.700000</v>
+        <v>-1384.7</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>80294.257801</v>
       </c>
       <c r="B17" s="1">
-        <v>22.303961</v>
+        <v>22.303961000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>905.495000</v>
+        <v>905.495</v>
       </c>
       <c r="D17" s="1">
-        <v>-200.321000</v>
+        <v>-200.321</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>80304.393051</v>
+        <v>80304.393051000006</v>
       </c>
       <c r="G17" s="1">
-        <v>22.306776</v>
+        <v>22.306775999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>923.484000</v>
+        <v>923.48400000000004</v>
       </c>
       <c r="I17" s="1">
-        <v>-169.540000</v>
+        <v>-169.54</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>80314.571486</v>
+        <v>80314.571486000001</v>
       </c>
       <c r="L17" s="1">
-        <v>22.309603</v>
+        <v>22.309602999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>947.795000</v>
+        <v>947.79499999999996</v>
       </c>
       <c r="N17" s="1">
-        <v>-121.141000</v>
+        <v>-121.14100000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>80325.118384</v>
+        <v>80325.118384000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>22.312533</v>
+        <v>22.312532999999998</v>
       </c>
       <c r="R17" s="1">
-        <v>954.824000</v>
+        <v>954.82399999999996</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.881000</v>
+        <v>-104.881</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>80335.273507</v>
+        <v>80335.273507000005</v>
       </c>
       <c r="V17" s="1">
-        <v>22.315354</v>
+        <v>22.315353999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>961.801000</v>
+        <v>961.80100000000004</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.563800</v>
+        <v>-89.563800000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>80346.137348</v>
+        <v>80346.137348000004</v>
       </c>
       <c r="AA17" s="1">
-        <v>22.318371</v>
+        <v>22.318370999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>969.310000</v>
+        <v>969.31</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.816500</v>
+        <v>-77.816500000000005</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>80356.630710</v>
+        <v>80356.630709999998</v>
       </c>
       <c r="AF17" s="1">
-        <v>22.321286</v>
+        <v>22.321286000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>974.173000</v>
+        <v>974.173</v>
       </c>
       <c r="AH17" s="1">
-        <v>-75.372400</v>
+        <v>-75.372399999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>80367.137466</v>
       </c>
       <c r="AK17" s="1">
-        <v>22.324205</v>
+        <v>22.324204999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>981.541000</v>
+        <v>981.54100000000005</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.767900</v>
+        <v>-79.767899999999997</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>80378.017007</v>
+        <v>80378.017007000002</v>
       </c>
       <c r="AP17" s="1">
-        <v>22.327227</v>
+        <v>22.327227000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>989.742000</v>
+        <v>989.74199999999996</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.063700</v>
+        <v>-91.063699999999997</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>80389.387036</v>
@@ -4471,467 +4887,467 @@
         <v>22.330385</v>
       </c>
       <c r="AV17" s="1">
-        <v>999.642000</v>
+        <v>999.64200000000005</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.420000</v>
+        <v>-108.42</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>80400.414923</v>
+        <v>80400.414923000004</v>
       </c>
       <c r="AZ17" s="1">
-        <v>22.333449</v>
+        <v>22.333449000000002</v>
       </c>
       <c r="BA17" s="1">
-        <v>1007.950000</v>
+        <v>1007.95</v>
       </c>
       <c r="BB17" s="1">
-        <v>-123.867000</v>
+        <v>-123.867</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>80411.460974</v>
+        <v>80411.460974000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>22.336517</v>
+        <v>22.336517000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1046.780000</v>
+        <v>1046.78</v>
       </c>
       <c r="BG17" s="1">
-        <v>-194.817000</v>
+        <v>-194.81700000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>80422.706752</v>
+        <v>80422.706751999998</v>
       </c>
       <c r="BJ17" s="1">
         <v>22.339641</v>
       </c>
       <c r="BK17" s="1">
-        <v>1113.690000</v>
+        <v>1113.69</v>
       </c>
       <c r="BL17" s="1">
-        <v>-309.399000</v>
+        <v>-309.399</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>80433.894033</v>
+        <v>80433.894033000004</v>
       </c>
       <c r="BO17" s="1">
         <v>22.342748</v>
       </c>
       <c r="BP17" s="1">
-        <v>1221.870000</v>
+        <v>1221.8699999999999</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-488.814000</v>
+        <v>-488.81400000000002</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>80444.761858</v>
+        <v>80444.761857999998</v>
       </c>
       <c r="BT17" s="1">
-        <v>22.345767</v>
+        <v>22.345766999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1342.740000</v>
+        <v>1342.74</v>
       </c>
       <c r="BV17" s="1">
-        <v>-684.898000</v>
+        <v>-684.89800000000002</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>80456.083549</v>
+        <v>80456.083549000003</v>
       </c>
       <c r="BY17" s="1">
-        <v>22.348912</v>
+        <v>22.348911999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1477.260000</v>
+        <v>1477.26</v>
       </c>
       <c r="CA17" s="1">
-        <v>-892.599000</v>
+        <v>-892.59900000000005</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>80468.582227</v>
+        <v>80468.582227000006</v>
       </c>
       <c r="CD17" s="1">
-        <v>22.352384</v>
+        <v>22.352384000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>1826.710000</v>
+        <v>1826.71</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1385.400000</v>
+        <v>-1385.4</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>80294.602024</v>
+        <v>80294.602024000007</v>
       </c>
       <c r="B18" s="1">
-        <v>22.304056</v>
+        <v>22.304055999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>905.294000</v>
+        <v>905.29399999999998</v>
       </c>
       <c r="D18" s="1">
-        <v>-200.429000</v>
+        <v>-200.429</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>80304.737279</v>
+        <v>80304.737278999994</v>
       </c>
       <c r="G18" s="1">
-        <v>22.306871</v>
+        <v>22.306871000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>923.544000</v>
+        <v>923.54399999999998</v>
       </c>
       <c r="I18" s="1">
-        <v>-170.095000</v>
+        <v>-170.095</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>80314.920638</v>
+        <v>80314.920637999996</v>
       </c>
       <c r="L18" s="1">
-        <v>22.309700</v>
+        <v>22.309699999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>947.738000</v>
+        <v>947.73800000000006</v>
       </c>
       <c r="N18" s="1">
-        <v>-121.332000</v>
+        <v>-121.33199999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>80325.816256</v>
+        <v>80325.816256000006</v>
       </c>
       <c r="Q18" s="1">
-        <v>22.312727</v>
+        <v>22.312726999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>954.858000</v>
+        <v>954.85799999999995</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.893000</v>
+        <v>-104.893</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>80335.959970</v>
+        <v>80335.959969999996</v>
       </c>
       <c r="V18" s="1">
-        <v>22.315544</v>
+        <v>22.315543999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>961.845000</v>
+        <v>961.84500000000003</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.614500</v>
+        <v>-89.614500000000007</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>80346.487556</v>
+        <v>80346.487555999993</v>
       </c>
       <c r="AA18" s="1">
         <v>22.318469</v>
       </c>
       <c r="AB18" s="1">
-        <v>969.343000</v>
+        <v>969.34299999999996</v>
       </c>
       <c r="AC18" s="1">
-        <v>-77.778700</v>
+        <v>-77.778700000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>80356.975926</v>
+        <v>80356.975925999999</v>
       </c>
       <c r="AF18" s="1">
         <v>22.321382</v>
       </c>
       <c r="AG18" s="1">
-        <v>974.144000</v>
+        <v>974.14400000000001</v>
       </c>
       <c r="AH18" s="1">
-        <v>-75.367400</v>
+        <v>-75.367400000000004</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>80367.487640</v>
+        <v>80367.487640000007</v>
       </c>
       <c r="AK18" s="1">
-        <v>22.324302</v>
+        <v>22.324301999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>981.537000</v>
+        <v>981.53700000000003</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.798800</v>
+        <v>-79.7988</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>80378.685849</v>
+        <v>80378.685849000001</v>
       </c>
       <c r="AP18" s="1">
         <v>22.327413</v>
       </c>
       <c r="AQ18" s="1">
-        <v>989.739000</v>
+        <v>989.73900000000003</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.073400</v>
+        <v>-91.073400000000007</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>80389.797701</v>
+        <v>80389.797701000003</v>
       </c>
       <c r="AU18" s="1">
         <v>22.330499</v>
       </c>
       <c r="AV18" s="1">
-        <v>999.648000</v>
+        <v>999.64800000000002</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.430000</v>
+        <v>-108.43</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>80400.819788</v>
+        <v>80400.819787999993</v>
       </c>
       <c r="AZ18" s="1">
         <v>22.333561</v>
       </c>
       <c r="BA18" s="1">
-        <v>1007.960000</v>
+        <v>1007.96</v>
       </c>
       <c r="BB18" s="1">
-        <v>-123.884000</v>
+        <v>-123.884</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>80411.820590</v>
+        <v>80411.820590000003</v>
       </c>
       <c r="BE18" s="1">
         <v>22.336617</v>
       </c>
       <c r="BF18" s="1">
-        <v>1046.770000</v>
+        <v>1046.77</v>
       </c>
       <c r="BG18" s="1">
-        <v>-194.819000</v>
+        <v>-194.81899999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>80423.082222</v>
+        <v>80423.082221999997</v>
       </c>
       <c r="BJ18" s="1">
-        <v>22.339745</v>
+        <v>22.339745000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1113.710000</v>
+        <v>1113.71</v>
       </c>
       <c r="BL18" s="1">
-        <v>-309.403000</v>
+        <v>-309.40300000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>80434.292336</v>
+        <v>80434.292335999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>22.342859</v>
+        <v>22.342859000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1221.860000</v>
+        <v>1221.8599999999999</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-488.804000</v>
+        <v>-488.80399999999997</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>80445.185938</v>
+        <v>80445.185937999995</v>
       </c>
       <c r="BT18" s="1">
-        <v>22.345885</v>
+        <v>22.345884999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1342.890000</v>
+        <v>1342.89</v>
       </c>
       <c r="BV18" s="1">
-        <v>-685.016000</v>
+        <v>-685.01599999999996</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>80456.520514</v>
+        <v>80456.520514000003</v>
       </c>
       <c r="BY18" s="1">
-        <v>22.349033</v>
+        <v>22.349032999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1477.250000</v>
+        <v>1477.25</v>
       </c>
       <c r="CA18" s="1">
-        <v>-892.489000</v>
+        <v>-892.48900000000003</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>80469.110961</v>
+        <v>80469.110960999998</v>
       </c>
       <c r="CD18" s="1">
-        <v>22.352531</v>
+        <v>22.352530999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>1826.690000</v>
+        <v>1826.69</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1384.290000</v>
+        <v>-1384.29</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>80294.943272</v>
+        <v>80294.943272000004</v>
       </c>
       <c r="B19" s="1">
-        <v>22.304151</v>
+        <v>22.304151000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>905.324000</v>
+        <v>905.32399999999996</v>
       </c>
       <c r="D19" s="1">
-        <v>-200.151000</v>
+        <v>-200.15100000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>80305.426751</v>
+        <v>80305.426751000006</v>
       </c>
       <c r="G19" s="1">
-        <v>22.307063</v>
+        <v>22.307062999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>923.505000</v>
+        <v>923.505</v>
       </c>
       <c r="I19" s="1">
-        <v>-169.914000</v>
+        <v>-169.91399999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>80315.615068</v>
+        <v>80315.615067999999</v>
       </c>
       <c r="L19" s="1">
-        <v>22.309893</v>
+        <v>22.309892999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>947.652000</v>
+        <v>947.65200000000004</v>
       </c>
       <c r="N19" s="1">
-        <v>-121.238000</v>
+        <v>-121.238</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>80326.163455</v>
+        <v>80326.163455000002</v>
       </c>
       <c r="Q19" s="1">
-        <v>22.312823</v>
+        <v>22.312823000000002</v>
       </c>
       <c r="R19" s="1">
-        <v>954.921000</v>
+        <v>954.92100000000005</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.914000</v>
+        <v>-104.914</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>80336.304690</v>
+        <v>80336.304690000004</v>
       </c>
       <c r="V19" s="1">
-        <v>22.315640</v>
+        <v>22.315639999999998</v>
       </c>
       <c r="W19" s="1">
-        <v>961.852000</v>
+        <v>961.85199999999998</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.549300</v>
+        <v>-89.549300000000002</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>80346.833235</v>
+        <v>80346.833234999998</v>
       </c>
       <c r="AA19" s="1">
         <v>22.318565</v>
       </c>
       <c r="AB19" s="1">
-        <v>969.321000</v>
+        <v>969.32100000000003</v>
       </c>
       <c r="AC19" s="1">
-        <v>-77.775400</v>
+        <v>-77.775400000000005</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>80357.632629</v>
@@ -4940,1161 +5356,1161 @@
         <v>22.321565</v>
       </c>
       <c r="AG19" s="1">
-        <v>974.024000</v>
+        <v>974.024</v>
       </c>
       <c r="AH19" s="1">
-        <v>-75.377800</v>
+        <v>-75.377799999999993</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>80368.170632</v>
+        <v>80368.170631999994</v>
       </c>
       <c r="AK19" s="1">
-        <v>22.324492</v>
+        <v>22.324491999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>981.532000</v>
+        <v>981.53200000000004</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.772400</v>
+        <v>-79.772400000000005</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>80379.098488</v>
+        <v>80379.098488000003</v>
       </c>
       <c r="AP19" s="1">
         <v>22.327527</v>
       </c>
       <c r="AQ19" s="1">
-        <v>989.724000</v>
+        <v>989.72400000000005</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.084800</v>
+        <v>-91.084800000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>80390.159770</v>
+        <v>80390.159769999998</v>
       </c>
       <c r="AU19" s="1">
-        <v>22.330600</v>
+        <v>22.3306</v>
       </c>
       <c r="AV19" s="1">
-        <v>999.644000</v>
+        <v>999.64400000000001</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.434000</v>
+        <v>-108.434</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>80401.195756</v>
+        <v>80401.195756000001</v>
       </c>
       <c r="AZ19" s="1">
         <v>22.333665</v>
       </c>
       <c r="BA19" s="1">
-        <v>1007.970000</v>
+        <v>1007.97</v>
       </c>
       <c r="BB19" s="1">
-        <v>-123.862000</v>
+        <v>-123.86199999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>80412.185650</v>
+        <v>80412.185649999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>22.336718</v>
+        <v>22.336718000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1046.770000</v>
+        <v>1046.77</v>
       </c>
       <c r="BG19" s="1">
-        <v>-194.805000</v>
+        <v>-194.80500000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>80423.503822</v>
+        <v>80423.503821999999</v>
       </c>
       <c r="BJ19" s="1">
         <v>22.339862</v>
       </c>
       <c r="BK19" s="1">
-        <v>1113.700000</v>
+        <v>1113.7</v>
       </c>
       <c r="BL19" s="1">
-        <v>-309.382000</v>
+        <v>-309.38200000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>80434.717871</v>
+        <v>80434.717871000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>22.342977</v>
+        <v>22.342977000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1221.890000</v>
+        <v>1221.8900000000001</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-488.803000</v>
+        <v>-488.803</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>80445.596128</v>
+        <v>80445.596128000005</v>
       </c>
       <c r="BT19" s="1">
-        <v>22.345999</v>
+        <v>22.345998999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1342.940000</v>
+        <v>1342.94</v>
       </c>
       <c r="BV19" s="1">
-        <v>-684.885000</v>
+        <v>-684.88499999999999</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>80456.954018</v>
+        <v>80456.954018000004</v>
       </c>
       <c r="BY19" s="1">
-        <v>22.349154</v>
+        <v>22.349153999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1477.200000</v>
+        <v>1477.2</v>
       </c>
       <c r="CA19" s="1">
-        <v>-892.477000</v>
+        <v>-892.47699999999998</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>80469.629318</v>
+        <v>80469.629318000007</v>
       </c>
       <c r="CD19" s="1">
-        <v>22.352675</v>
+        <v>22.352675000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1827.140000</v>
+        <v>1827.14</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1384.770000</v>
+        <v>-1384.77</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>80295.628247</v>
+        <v>80295.628247000001</v>
       </c>
       <c r="B20" s="1">
-        <v>22.304341</v>
+        <v>22.304341000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>905.360000</v>
+        <v>905.36</v>
       </c>
       <c r="D20" s="1">
-        <v>-200.245000</v>
+        <v>-200.245</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>80305.771433</v>
+        <v>80305.771433000002</v>
       </c>
       <c r="G20" s="1">
-        <v>22.307159</v>
+        <v>22.307158999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>923.265000</v>
+        <v>923.26499999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-170.211000</v>
+        <v>-170.21100000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>80315.960285</v>
+        <v>80315.960284999994</v>
       </c>
       <c r="L20" s="1">
-        <v>22.309989</v>
+        <v>22.309989000000002</v>
       </c>
       <c r="M20" s="1">
-        <v>947.816000</v>
+        <v>947.81600000000003</v>
       </c>
       <c r="N20" s="1">
-        <v>-121.245000</v>
+        <v>-121.245</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>80326.511647</v>
+        <v>80326.511647000007</v>
       </c>
       <c r="Q20" s="1">
-        <v>22.312920</v>
+        <v>22.312919999999998</v>
       </c>
       <c r="R20" s="1">
-        <v>954.900000</v>
+        <v>954.9</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.944000</v>
+        <v>-104.944</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>80336.969792</v>
+        <v>80336.969792000004</v>
       </c>
       <c r="V20" s="1">
         <v>22.315825</v>
       </c>
       <c r="W20" s="1">
-        <v>961.863000</v>
+        <v>961.86300000000006</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.740600</v>
+        <v>-89.740600000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>80347.506803</v>
+        <v>80347.506802999997</v>
       </c>
       <c r="AA20" s="1">
         <v>22.318752</v>
       </c>
       <c r="AB20" s="1">
-        <v>969.250000</v>
+        <v>969.25</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.716900</v>
+        <v>-77.716899999999995</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>80358.005125</v>
+        <v>80358.005124999996</v>
       </c>
       <c r="AF20" s="1">
-        <v>22.321668</v>
+        <v>22.321667999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>974.133000</v>
+        <v>974.13300000000004</v>
       </c>
       <c r="AH20" s="1">
-        <v>-75.433500</v>
+        <v>-75.433499999999995</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>80368.533702</v>
+        <v>80368.533702000001</v>
       </c>
       <c r="AK20" s="1">
         <v>22.324593</v>
       </c>
       <c r="AL20" s="1">
-        <v>981.546000</v>
+        <v>981.54600000000005</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.788900</v>
+        <v>-79.788899999999998</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>80379.482392</v>
+        <v>80379.482392000005</v>
       </c>
       <c r="AP20" s="1">
         <v>22.327634</v>
       </c>
       <c r="AQ20" s="1">
-        <v>989.724000</v>
+        <v>989.72400000000005</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.085800</v>
+        <v>-91.085800000000006</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>80390.522841</v>
+        <v>80390.522840999998</v>
       </c>
       <c r="AU20" s="1">
-        <v>22.330701</v>
+        <v>22.330701000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>999.631000</v>
+        <v>999.63099999999997</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.442000</v>
+        <v>-108.44199999999999</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>80401.574731</v>
+        <v>80401.574731000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>22.333771</v>
+        <v>22.333770999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1007.960000</v>
+        <v>1007.96</v>
       </c>
       <c r="BB20" s="1">
-        <v>-123.886000</v>
+        <v>-123.886</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>80412.618621</v>
+        <v>80412.618621000001</v>
       </c>
       <c r="BE20" s="1">
-        <v>22.336839</v>
+        <v>22.336839000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1046.780000</v>
+        <v>1046.78</v>
       </c>
       <c r="BG20" s="1">
-        <v>-194.821000</v>
+        <v>-194.821</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>80423.853533</v>
+        <v>80423.853533000001</v>
       </c>
       <c r="BJ20" s="1">
         <v>22.339959</v>
       </c>
       <c r="BK20" s="1">
-        <v>1113.710000</v>
+        <v>1113.71</v>
       </c>
       <c r="BL20" s="1">
-        <v>-309.396000</v>
+        <v>-309.39600000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>80435.112001</v>
+        <v>80435.112001000001</v>
       </c>
       <c r="BO20" s="1">
-        <v>22.343087</v>
+        <v>22.343087000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1221.890000</v>
+        <v>1221.8900000000001</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-488.749000</v>
+        <v>-488.74900000000002</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>80446.008800</v>
+        <v>80446.008799999996</v>
       </c>
       <c r="BT20" s="1">
         <v>22.346114</v>
       </c>
       <c r="BU20" s="1">
-        <v>1343.040000</v>
+        <v>1343.04</v>
       </c>
       <c r="BV20" s="1">
-        <v>-684.912000</v>
+        <v>-684.91200000000003</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>80457.373633</v>
+        <v>80457.373632999996</v>
       </c>
       <c r="BY20" s="1">
-        <v>22.349270</v>
+        <v>22.349270000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1477.240000</v>
+        <v>1477.24</v>
       </c>
       <c r="CA20" s="1">
-        <v>-892.558000</v>
+        <v>-892.55799999999999</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>80470.184304</v>
+        <v>80470.184303999995</v>
       </c>
       <c r="CD20" s="1">
         <v>22.352829</v>
       </c>
       <c r="CE20" s="1">
-        <v>1826.810000</v>
+        <v>1826.81</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1385.310000</v>
+        <v>-1385.31</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>80295.969031</v>
+        <v>80295.969031000001</v>
       </c>
       <c r="B21" s="1">
-        <v>22.304436</v>
+        <v>22.304435999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>905.507000</v>
+        <v>905.50699999999995</v>
       </c>
       <c r="D21" s="1">
-        <v>-200.112000</v>
+        <v>-200.11199999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>80306.117647</v>
+        <v>80306.117647000006</v>
       </c>
       <c r="G21" s="1">
-        <v>22.307255</v>
+        <v>22.307255000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>923.499000</v>
+        <v>923.49900000000002</v>
       </c>
       <c r="I21" s="1">
-        <v>-169.739000</v>
+        <v>-169.739</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>80316.305776</v>
+        <v>80316.305775999994</v>
       </c>
       <c r="L21" s="1">
-        <v>22.310085</v>
+        <v>22.310085000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>947.771000</v>
+        <v>947.77099999999996</v>
       </c>
       <c r="N21" s="1">
-        <v>-121.079000</v>
+        <v>-121.07899999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>80327.177309</v>
+        <v>80327.177309000006</v>
       </c>
       <c r="Q21" s="1">
         <v>22.313105</v>
       </c>
       <c r="R21" s="1">
-        <v>954.884000</v>
+        <v>954.88400000000001</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.929000</v>
+        <v>-104.929</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>80337.333360</v>
+        <v>80337.333360000004</v>
       </c>
       <c r="V21" s="1">
-        <v>22.315926</v>
+        <v>22.315926000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>961.855000</v>
+        <v>961.85500000000002</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.684100</v>
+        <v>-89.684100000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>80347.877842</v>
+        <v>80347.877842000002</v>
       </c>
       <c r="AA21" s="1">
-        <v>22.318855</v>
+        <v>22.318854999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>969.284000</v>
+        <v>969.28399999999999</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.766200</v>
+        <v>-77.766199999999998</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>80358.351332</v>
+        <v>80358.351332000006</v>
       </c>
       <c r="AF21" s="1">
-        <v>22.321764</v>
+        <v>22.321764000000002</v>
       </c>
       <c r="AG21" s="1">
-        <v>974.081000</v>
+        <v>974.08100000000002</v>
       </c>
       <c r="AH21" s="1">
-        <v>-75.424500</v>
+        <v>-75.424499999999995</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>80368.880406</v>
+        <v>80368.880405999997</v>
       </c>
       <c r="AK21" s="1">
-        <v>22.324689</v>
+        <v>22.324688999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>981.560000</v>
+        <v>981.56</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.774900</v>
+        <v>-79.774900000000002</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>80379.842983</v>
+        <v>80379.842982999995</v>
       </c>
       <c r="AP21" s="1">
         <v>22.327734</v>
       </c>
       <c r="AQ21" s="1">
-        <v>989.735000</v>
+        <v>989.73500000000001</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.081500</v>
+        <v>-91.081500000000005</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>80390.953866</v>
+        <v>80390.953865999996</v>
       </c>
       <c r="AU21" s="1">
         <v>22.330821</v>
       </c>
       <c r="AV21" s="1">
-        <v>999.637000</v>
+        <v>999.63699999999994</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.426000</v>
+        <v>-108.426</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>80402.007707</v>
+        <v>80402.007706999997</v>
       </c>
       <c r="AZ21" s="1">
-        <v>22.333891</v>
+        <v>22.333891000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1007.960000</v>
+        <v>1007.96</v>
       </c>
       <c r="BB21" s="1">
-        <v>-123.881000</v>
+        <v>-123.881</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>80412.906796</v>
+        <v>80412.906795999996</v>
       </c>
       <c r="BE21" s="1">
-        <v>22.336919</v>
+        <v>22.336919000000002</v>
       </c>
       <c r="BF21" s="1">
-        <v>1046.780000</v>
+        <v>1046.78</v>
       </c>
       <c r="BG21" s="1">
-        <v>-194.833000</v>
+        <v>-194.833</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>80424.227981</v>
+        <v>80424.227981000004</v>
       </c>
       <c r="BJ21" s="1">
-        <v>22.340063</v>
+        <v>22.340063000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1113.680000</v>
+        <v>1113.68</v>
       </c>
       <c r="BL21" s="1">
-        <v>-309.396000</v>
+        <v>-309.39600000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>80435.530318</v>
+        <v>80435.530318000005</v>
       </c>
       <c r="BO21" s="1">
-        <v>22.343203</v>
+        <v>22.343202999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1221.880000</v>
+        <v>1221.8800000000001</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-488.773000</v>
+        <v>-488.77300000000002</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>80446.424943</v>
+        <v>80446.424943000005</v>
       </c>
       <c r="BT21" s="1">
-        <v>22.346229</v>
+        <v>22.346229000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1343.030000</v>
+        <v>1343.03</v>
       </c>
       <c r="BV21" s="1">
-        <v>-684.811000</v>
+        <v>-684.81100000000004</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>80457.797216</v>
+        <v>80457.797216000006</v>
       </c>
       <c r="BY21" s="1">
-        <v>22.349388</v>
+        <v>22.349388000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1477.280000</v>
+        <v>1477.28</v>
       </c>
       <c r="CA21" s="1">
-        <v>-892.617000</v>
+        <v>-892.61699999999996</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>80470.715024</v>
+        <v>80470.715024000005</v>
       </c>
       <c r="CD21" s="1">
-        <v>22.352976</v>
+        <v>22.352976000000002</v>
       </c>
       <c r="CE21" s="1">
-        <v>1826.700000</v>
+        <v>1826.7</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1384.140000</v>
+        <v>-1384.14</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>80296.313718</v>
+        <v>80296.313718000005</v>
       </c>
       <c r="B22" s="1">
-        <v>22.304532</v>
+        <v>22.304531999999998</v>
       </c>
       <c r="C22" s="1">
-        <v>905.412000</v>
+        <v>905.41200000000003</v>
       </c>
       <c r="D22" s="1">
-        <v>-200.295000</v>
+        <v>-200.29499999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>80306.773354</v>
+        <v>80306.773354000004</v>
       </c>
       <c r="G22" s="1">
         <v>22.307437</v>
       </c>
       <c r="H22" s="1">
-        <v>923.793000</v>
+        <v>923.79300000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-169.726000</v>
+        <v>-169.726</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>80316.981020</v>
+        <v>80316.981020000007</v>
       </c>
       <c r="L22" s="1">
-        <v>22.310273</v>
+        <v>22.310272999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>947.705000</v>
+        <v>947.70500000000004</v>
       </c>
       <c r="N22" s="1">
-        <v>-121.159000</v>
+        <v>-121.15900000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>80327.558701</v>
+        <v>80327.558701000002</v>
       </c>
       <c r="Q22" s="1">
-        <v>22.313211</v>
+        <v>22.313210999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>954.866000</v>
+        <v>954.86599999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.886000</v>
+        <v>-104.886</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>80337.675636</v>
       </c>
       <c r="V22" s="1">
-        <v>22.316021</v>
+        <v>22.316020999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>961.739000</v>
+        <v>961.73900000000003</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.729400</v>
+        <v>-89.729399999999998</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>80348.226993</v>
+        <v>80348.226993000004</v>
       </c>
       <c r="AA22" s="1">
-        <v>22.318952</v>
+        <v>22.318951999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>969.373000</v>
+        <v>969.37300000000005</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.834000</v>
+        <v>-77.834000000000003</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>80358.700516</v>
+        <v>80358.700515999997</v>
       </c>
       <c r="AF22" s="1">
-        <v>22.321861</v>
+        <v>22.321860999999998</v>
       </c>
       <c r="AG22" s="1">
-        <v>974.249000</v>
+        <v>974.24900000000002</v>
       </c>
       <c r="AH22" s="1">
-        <v>-75.511700</v>
+        <v>-75.511700000000005</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>80369.227606</v>
       </c>
       <c r="AK22" s="1">
-        <v>22.324785</v>
+        <v>22.324784999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>981.549000</v>
+        <v>981.54899999999998</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.784800</v>
+        <v>-79.784800000000004</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>80380.272519</v>
+        <v>80380.272519000006</v>
       </c>
       <c r="AP22" s="1">
-        <v>22.327853</v>
+        <v>22.327853000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>989.723000</v>
+        <v>989.72299999999996</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.086800</v>
+        <v>-91.086799999999997</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>80391.250968</v>
+        <v>80391.250967999993</v>
       </c>
       <c r="AU22" s="1">
-        <v>22.330903</v>
+        <v>22.330902999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>999.633000</v>
+        <v>999.63300000000004</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.436000</v>
+        <v>-108.43600000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>80402.295386</v>
+        <v>80402.295385999998</v>
       </c>
       <c r="AZ22" s="1">
-        <v>22.333971</v>
+        <v>22.333970999999998</v>
       </c>
       <c r="BA22" s="1">
-        <v>1007.980000</v>
+        <v>1007.98</v>
       </c>
       <c r="BB22" s="1">
-        <v>-123.886000</v>
+        <v>-123.886</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>80413.267883</v>
+        <v>80413.267882999993</v>
       </c>
       <c r="BE22" s="1">
-        <v>22.337019</v>
+        <v>22.337019000000002</v>
       </c>
       <c r="BF22" s="1">
-        <v>1046.780000</v>
+        <v>1046.78</v>
       </c>
       <c r="BG22" s="1">
-        <v>-194.828000</v>
+        <v>-194.828</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>80424.605934</v>
+        <v>80424.605934000007</v>
       </c>
       <c r="BJ22" s="1">
-        <v>22.340168</v>
+        <v>22.340167999999998</v>
       </c>
       <c r="BK22" s="1">
-        <v>1113.690000</v>
+        <v>1113.69</v>
       </c>
       <c r="BL22" s="1">
-        <v>-309.386000</v>
+        <v>-309.38600000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>80435.925630</v>
+        <v>80435.925629999998</v>
       </c>
       <c r="BO22" s="1">
-        <v>22.343313</v>
+        <v>22.343312999999998</v>
       </c>
       <c r="BP22" s="1">
-        <v>1221.880000</v>
+        <v>1221.8800000000001</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-488.781000</v>
+        <v>-488.78100000000001</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>80446.846048</v>
+        <v>80446.846048000007</v>
       </c>
       <c r="BT22" s="1">
         <v>22.346346</v>
       </c>
       <c r="BU22" s="1">
-        <v>1343.090000</v>
+        <v>1343.09</v>
       </c>
       <c r="BV22" s="1">
-        <v>-684.827000</v>
+        <v>-684.827</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>80458.219841</v>
+        <v>80458.219840999998</v>
       </c>
       <c r="BY22" s="1">
-        <v>22.349506</v>
+        <v>22.349506000000002</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1477.310000</v>
+        <v>1477.31</v>
       </c>
       <c r="CA22" s="1">
-        <v>-892.451000</v>
+        <v>-892.45100000000002</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>80471.231891</v>
+        <v>80471.231891000003</v>
       </c>
       <c r="CD22" s="1">
-        <v>22.353120</v>
+        <v>22.353120000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1826.950000</v>
+        <v>1826.95</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1384.630000</v>
+        <v>-1384.63</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>80296.965476</v>
+        <v>80296.965475999998</v>
       </c>
       <c r="B23" s="1">
         <v>22.304713</v>
       </c>
       <c r="C23" s="1">
-        <v>905.409000</v>
+        <v>905.40899999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-200.212000</v>
+        <v>-200.21199999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>80307.147833</v>
+        <v>80307.147832999995</v>
       </c>
       <c r="G23" s="1">
-        <v>22.307541</v>
+        <v>22.307541000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>923.817000</v>
+        <v>923.81700000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-170.228000</v>
+        <v>-170.22800000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>80317.343594</v>
+        <v>80317.343594000005</v>
       </c>
       <c r="L23" s="1">
-        <v>22.310373</v>
+        <v>22.310372999999998</v>
       </c>
       <c r="M23" s="1">
-        <v>947.833000</v>
+        <v>947.83299999999997</v>
       </c>
       <c r="N23" s="1">
-        <v>-121.218000</v>
+        <v>-121.218</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>80327.907904</v>
+        <v>80327.907904000007</v>
       </c>
       <c r="Q23" s="1">
-        <v>22.313308</v>
+        <v>22.313307999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>954.850000</v>
+        <v>954.85</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.873000</v>
+        <v>-104.873</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>80338.022335</v>
+        <v>80338.022335000001</v>
       </c>
       <c r="V23" s="1">
-        <v>22.316117</v>
+        <v>22.316116999999998</v>
       </c>
       <c r="W23" s="1">
-        <v>961.806000</v>
+        <v>961.80600000000004</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.592700</v>
+        <v>-89.592699999999994</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>80348.576705</v>
+        <v>80348.576704999999</v>
       </c>
       <c r="AA23" s="1">
         <v>22.319049</v>
       </c>
       <c r="AB23" s="1">
-        <v>969.325000</v>
+        <v>969.32500000000005</v>
       </c>
       <c r="AC23" s="1">
-        <v>-77.755300</v>
+        <v>-77.755300000000005</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>80359.125588</v>
+        <v>80359.125587999995</v>
       </c>
       <c r="AF23" s="1">
-        <v>22.321979</v>
+        <v>22.321978999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>974.185000</v>
+        <v>974.18499999999995</v>
       </c>
       <c r="AH23" s="1">
-        <v>-75.440400</v>
+        <v>-75.440399999999997</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>80369.701114</v>
+        <v>80369.701113999996</v>
       </c>
       <c r="AK23" s="1">
-        <v>22.324917</v>
+        <v>22.324916999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>981.538000</v>
+        <v>981.53800000000001</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.820500</v>
+        <v>-79.820499999999996</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>80380.563207</v>
+        <v>80380.563206999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>22.327934</v>
+        <v>22.327933999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>989.716000</v>
+        <v>989.71600000000001</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.092600</v>
+        <v>-91.092600000000004</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>80391.617016</v>
+        <v>80391.617016000004</v>
       </c>
       <c r="AU23" s="1">
-        <v>22.331005</v>
+        <v>22.331005000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>999.656000</v>
+        <v>999.65599999999995</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.437000</v>
+        <v>-108.437</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>80402.650523</v>
+        <v>80402.650523000004</v>
       </c>
       <c r="AZ23" s="1">
-        <v>22.334070</v>
+        <v>22.334070000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1007.950000</v>
+        <v>1007.95</v>
       </c>
       <c r="BB23" s="1">
-        <v>-123.891000</v>
+        <v>-123.89100000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>80413.627484</v>
+        <v>80413.627483999997</v>
       </c>
       <c r="BE23" s="1">
-        <v>22.337119</v>
+        <v>22.337119000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1046.780000</v>
+        <v>1046.78</v>
       </c>
       <c r="BG23" s="1">
-        <v>-194.815000</v>
+        <v>-194.815</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>80425.353404</v>
+        <v>80425.353403999994</v>
       </c>
       <c r="BJ23" s="1">
-        <v>22.340376</v>
+        <v>22.340375999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1113.700000</v>
+        <v>1113.7</v>
       </c>
       <c r="BL23" s="1">
-        <v>-309.368000</v>
+        <v>-309.36799999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>80436.366573</v>
+        <v>80436.366573000007</v>
       </c>
       <c r="BO23" s="1">
-        <v>22.343435</v>
+        <v>22.343434999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1221.880000</v>
+        <v>1221.8800000000001</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-488.784000</v>
+        <v>-488.78399999999999</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>80447.254751</v>
       </c>
       <c r="BT23" s="1">
-        <v>22.346460</v>
+        <v>22.34646</v>
       </c>
       <c r="BU23" s="1">
-        <v>1343.110000</v>
+        <v>1343.11</v>
       </c>
       <c r="BV23" s="1">
-        <v>-684.732000</v>
+        <v>-684.73199999999997</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>80458.638433</v>
@@ -6103,801 +6519,802 @@
         <v>22.349622</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1477.320000</v>
+        <v>1477.32</v>
       </c>
       <c r="CA23" s="1">
-        <v>-892.530000</v>
+        <v>-892.53</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>80471.803246</v>
+        <v>80471.803245999996</v>
       </c>
       <c r="CD23" s="1">
-        <v>22.353279</v>
+        <v>22.353279000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>1826.850000</v>
+        <v>1826.85</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1385.230000</v>
+        <v>-1385.23</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>80297.335973</v>
+        <v>80297.335972999994</v>
       </c>
       <c r="B24" s="1">
-        <v>22.304816</v>
+        <v>22.304815999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>905.204000</v>
+        <v>905.20399999999995</v>
       </c>
       <c r="D24" s="1">
-        <v>-200.258000</v>
+        <v>-200.25800000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>80307.496521</v>
+        <v>80307.496520999994</v>
       </c>
       <c r="G24" s="1">
-        <v>22.307638</v>
+        <v>22.307638000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>923.283000</v>
+        <v>923.28300000000002</v>
       </c>
       <c r="I24" s="1">
-        <v>-170.232000</v>
+        <v>-170.232</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>80317.688313</v>
+        <v>80317.688313000006</v>
       </c>
       <c r="L24" s="1">
-        <v>22.310469</v>
+        <v>22.310469000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>947.711000</v>
+        <v>947.71100000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-121.114000</v>
+        <v>-121.114</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>80328.259052</v>
+        <v>80328.259051999994</v>
       </c>
       <c r="Q24" s="1">
-        <v>22.313405</v>
+        <v>22.313404999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>954.908000</v>
+        <v>954.90800000000002</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.909000</v>
+        <v>-104.90900000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>80338.450846</v>
+        <v>80338.450846000007</v>
       </c>
       <c r="V24" s="1">
         <v>22.316236</v>
       </c>
       <c r="W24" s="1">
-        <v>961.757000</v>
+        <v>961.75699999999995</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.689100</v>
+        <v>-89.689099999999996</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>80349.004720</v>
+        <v>80349.004719999997</v>
       </c>
       <c r="AA24" s="1">
-        <v>22.319168</v>
+        <v>22.319168000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>969.286000</v>
+        <v>969.28599999999994</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.778100</v>
+        <v>-77.778099999999995</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>80359.403842</v>
       </c>
       <c r="AF24" s="1">
-        <v>22.322057</v>
+        <v>22.322057000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>974.109000</v>
+        <v>974.10900000000004</v>
       </c>
       <c r="AH24" s="1">
-        <v>-75.434800</v>
+        <v>-75.434799999999996</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>80369.951275</v>
+        <v>80369.951274999999</v>
       </c>
       <c r="AK24" s="1">
-        <v>22.324986</v>
+        <v>22.324985999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>981.543000</v>
+        <v>981.54300000000001</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.784800</v>
+        <v>-79.784800000000004</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>80380.922775</v>
+        <v>80380.922774999999</v>
       </c>
       <c r="AP24" s="1">
-        <v>22.328034</v>
+        <v>22.328033999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>989.715000</v>
+        <v>989.71500000000003</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.086000</v>
+        <v>-91.085999999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>80391.984551</v>
+        <v>80391.984551000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>22.331107</v>
+        <v>22.331106999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>999.632000</v>
+        <v>999.63199999999995</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.448000</v>
+        <v>-108.44799999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>80403.008137</v>
+        <v>80403.008136999997</v>
       </c>
       <c r="AZ24" s="1">
-        <v>22.334169</v>
+        <v>22.334168999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1007.960000</v>
+        <v>1007.96</v>
       </c>
       <c r="BB24" s="1">
-        <v>-123.892000</v>
+        <v>-123.892</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>80414.350650</v>
+        <v>80414.350649999993</v>
       </c>
       <c r="BE24" s="1">
-        <v>22.337320</v>
+        <v>22.337319999999998</v>
       </c>
       <c r="BF24" s="1">
-        <v>1046.780000</v>
+        <v>1046.78</v>
       </c>
       <c r="BG24" s="1">
-        <v>-194.811000</v>
+        <v>-194.81100000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>80425.733379</v>
+        <v>80425.733378999998</v>
       </c>
       <c r="BJ24" s="1">
         <v>22.340481</v>
       </c>
       <c r="BK24" s="1">
-        <v>1113.700000</v>
+        <v>1113.7</v>
       </c>
       <c r="BL24" s="1">
-        <v>-309.410000</v>
+        <v>-309.41000000000003</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>80436.747996</v>
+        <v>80436.747996000006</v>
       </c>
       <c r="BO24" s="1">
-        <v>22.343541</v>
+        <v>22.343540999999998</v>
       </c>
       <c r="BP24" s="1">
-        <v>1221.840000</v>
+        <v>1221.8399999999999</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-488.741000</v>
+        <v>-488.74099999999999</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>80447.669934</v>
+        <v>80447.669934000005</v>
       </c>
       <c r="BT24" s="1">
-        <v>22.346575</v>
+        <v>22.346575000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1343.100000</v>
+        <v>1343.1</v>
       </c>
       <c r="BV24" s="1">
-        <v>-684.660000</v>
+        <v>-684.66</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>80459.393016</v>
+        <v>80459.393016000002</v>
       </c>
       <c r="BY24" s="1">
-        <v>22.349831</v>
+        <v>22.349830999999998</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1477.300000</v>
+        <v>1477.3</v>
       </c>
       <c r="CA24" s="1">
-        <v>-892.588000</v>
+        <v>-892.58799999999997</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>80472.312639</v>
+        <v>80472.312638999996</v>
       </c>
       <c r="CD24" s="1">
-        <v>22.353420</v>
+        <v>22.35342</v>
       </c>
       <c r="CE24" s="1">
-        <v>1826.500000</v>
+        <v>1826.5</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1384.130000</v>
+        <v>-1384.13</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>80297.679204</v>
       </c>
       <c r="B25" s="1">
-        <v>22.304911</v>
+        <v>22.304911000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>905.445000</v>
+        <v>905.44500000000005</v>
       </c>
       <c r="D25" s="1">
-        <v>-200.209000</v>
+        <v>-200.209</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>80307.837272</v>
+        <v>80307.837272000004</v>
       </c>
       <c r="G25" s="1">
-        <v>22.307733</v>
+        <v>22.307732999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>923.593000</v>
+        <v>923.59299999999996</v>
       </c>
       <c r="I25" s="1">
-        <v>-169.995000</v>
+        <v>-169.995</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>80318.034027</v>
+        <v>80318.034027000002</v>
       </c>
       <c r="L25" s="1">
         <v>22.310565</v>
       </c>
       <c r="M25" s="1">
-        <v>947.702000</v>
+        <v>947.702</v>
       </c>
       <c r="N25" s="1">
-        <v>-121.200000</v>
+        <v>-121.2</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>80328.689083</v>
+        <v>80328.689083000005</v>
       </c>
       <c r="Q25" s="1">
-        <v>22.313525</v>
+        <v>22.313524999999998</v>
       </c>
       <c r="R25" s="1">
-        <v>954.889000</v>
+        <v>954.88900000000001</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.934000</v>
+        <v>-104.934</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>80338.710763</v>
+        <v>80338.710762999995</v>
       </c>
       <c r="V25" s="1">
         <v>22.316309</v>
       </c>
       <c r="W25" s="1">
-        <v>961.913000</v>
+        <v>961.91300000000001</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.740500</v>
+        <v>-89.740499999999997</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>80349.283968</v>
+        <v>80349.283968000003</v>
       </c>
       <c r="AA25" s="1">
         <v>22.319246</v>
       </c>
       <c r="AB25" s="1">
-        <v>969.332000</v>
+        <v>969.33199999999999</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.790300</v>
+        <v>-77.790300000000002</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>80359.744099</v>
+        <v>80359.744099000003</v>
       </c>
       <c r="AF25" s="1">
-        <v>22.322151</v>
+        <v>22.322151000000002</v>
       </c>
       <c r="AG25" s="1">
-        <v>974.099000</v>
+        <v>974.09900000000005</v>
       </c>
       <c r="AH25" s="1">
-        <v>-75.398800</v>
+        <v>-75.398799999999994</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>80370.301940</v>
+        <v>80370.301940000005</v>
       </c>
       <c r="AK25" s="1">
         <v>22.325084</v>
       </c>
       <c r="AL25" s="1">
-        <v>981.558000</v>
+        <v>981.55799999999999</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.798000</v>
+        <v>-79.798000000000002</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>80381.285350</v>
+        <v>80381.285350000006</v>
       </c>
       <c r="AP25" s="1">
         <v>22.328135</v>
       </c>
       <c r="AQ25" s="1">
-        <v>989.732000</v>
+        <v>989.73199999999997</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.070800</v>
+        <v>-91.070800000000006</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>80392.711717</v>
+        <v>80392.711716999998</v>
       </c>
       <c r="AU25" s="1">
-        <v>22.331309</v>
+        <v>22.331309000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>999.642000</v>
+        <v>999.64200000000005</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.448000</v>
+        <v>-108.44799999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>80403.726840</v>
+        <v>80403.726840000003</v>
       </c>
       <c r="AZ25" s="1">
-        <v>22.334369</v>
+        <v>22.334368999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1007.960000</v>
+        <v>1007.96</v>
       </c>
       <c r="BB25" s="1">
-        <v>-123.878000</v>
+        <v>-123.878</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>80414.712729</v>
+        <v>80414.712729000006</v>
       </c>
       <c r="BE25" s="1">
-        <v>22.337420</v>
+        <v>22.337420000000002</v>
       </c>
       <c r="BF25" s="1">
-        <v>1046.780000</v>
+        <v>1046.78</v>
       </c>
       <c r="BG25" s="1">
-        <v>-194.819000</v>
+        <v>-194.81899999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>80426.106347</v>
+        <v>80426.106346999994</v>
       </c>
       <c r="BJ25" s="1">
-        <v>22.340585</v>
+        <v>22.340585000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1113.700000</v>
+        <v>1113.7</v>
       </c>
       <c r="BL25" s="1">
-        <v>-309.367000</v>
+        <v>-309.36700000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>80437.164637</v>
+        <v>80437.164636999994</v>
       </c>
       <c r="BO25" s="1">
         <v>22.343657</v>
       </c>
       <c r="BP25" s="1">
-        <v>1221.910000</v>
+        <v>1221.9100000000001</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-488.793000</v>
+        <v>-488.79300000000001</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>80448.400510</v>
+        <v>80448.400510000007</v>
       </c>
       <c r="BT25" s="1">
         <v>22.346778</v>
       </c>
       <c r="BU25" s="1">
-        <v>1343.090000</v>
+        <v>1343.09</v>
       </c>
       <c r="BV25" s="1">
-        <v>-684.628000</v>
+        <v>-684.62800000000004</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>80459.532222</v>
+        <v>80459.532221999994</v>
       </c>
       <c r="BY25" s="1">
-        <v>22.349870</v>
+        <v>22.349869999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1477.350000</v>
+        <v>1477.35</v>
       </c>
       <c r="CA25" s="1">
-        <v>-892.470000</v>
+        <v>-892.47</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>80472.830493</v>
+        <v>80472.830493000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>22.353564</v>
+        <v>22.353563999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1825.240000</v>
+        <v>1825.24</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1384.410000</v>
+        <v>-1384.41</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>80298.019988</v>
       </c>
       <c r="B26" s="1">
-        <v>22.305006</v>
+        <v>22.305005999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>905.393000</v>
+        <v>905.39300000000003</v>
       </c>
       <c r="D26" s="1">
-        <v>-200.190000</v>
+        <v>-200.19</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>80308.265318</v>
+        <v>80308.265318000005</v>
       </c>
       <c r="G26" s="1">
-        <v>22.307851</v>
+        <v>22.307850999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>923.737000</v>
+        <v>923.73699999999997</v>
       </c>
       <c r="I26" s="1">
-        <v>-170.070000</v>
+        <v>-170.07</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>80318.648072</v>
+        <v>80318.648071999996</v>
       </c>
       <c r="L26" s="1">
-        <v>22.310736</v>
+        <v>22.310735999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>947.911000</v>
+        <v>947.91099999999994</v>
       </c>
       <c r="N26" s="1">
-        <v>-121.184000</v>
+        <v>-121.184</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>80328.961427</v>
+        <v>80328.961427000002</v>
       </c>
       <c r="Q26" s="1">
-        <v>22.313600</v>
+        <v>22.313600000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>954.871000</v>
+        <v>954.87099999999998</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.932000</v>
+        <v>-104.932</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>80339.054477</v>
+        <v>80339.054476999998</v>
       </c>
       <c r="V26" s="1">
-        <v>22.316404</v>
+        <v>22.316403999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>961.969000</v>
+        <v>961.96900000000005</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.676600</v>
+        <v>-89.676599999999993</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>80349.633153</v>
+        <v>80349.633153000002</v>
       </c>
       <c r="AA26" s="1">
         <v>22.319343</v>
       </c>
       <c r="AB26" s="1">
-        <v>969.273000</v>
+        <v>969.27300000000002</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.716200</v>
+        <v>-77.716200000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>80360.087331</v>
+        <v>80360.087331000002</v>
       </c>
       <c r="AF26" s="1">
         <v>22.322246</v>
       </c>
       <c r="AG26" s="1">
-        <v>974.178000</v>
+        <v>974.178</v>
       </c>
       <c r="AH26" s="1">
-        <v>-75.376600</v>
+        <v>-75.376599999999996</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>80370.997347</v>
+        <v>80370.997346999997</v>
       </c>
       <c r="AK26" s="1">
         <v>22.325277</v>
       </c>
       <c r="AL26" s="1">
-        <v>981.546000</v>
+        <v>981.54600000000005</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.785400</v>
+        <v>-79.785399999999996</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>80382.005082</v>
+        <v>80382.005082000003</v>
       </c>
       <c r="AP26" s="1">
-        <v>22.328335</v>
+        <v>22.328334999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>989.716000</v>
+        <v>989.71600000000001</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.088800</v>
+        <v>-91.088800000000006</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>80393.101053</v>
+        <v>80393.101053000006</v>
       </c>
       <c r="AU26" s="1">
-        <v>22.331417</v>
+        <v>22.331416999999998</v>
       </c>
       <c r="AV26" s="1">
-        <v>999.649000</v>
+        <v>999.649</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.433000</v>
+        <v>-108.43300000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>80404.084951</v>
+        <v>80404.084950999997</v>
       </c>
       <c r="AZ26" s="1">
-        <v>22.334468</v>
+        <v>22.334468000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1007.970000</v>
+        <v>1007.97</v>
       </c>
       <c r="BB26" s="1">
-        <v>-123.882000</v>
+        <v>-123.88200000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>80415.069881</v>
+        <v>80415.069881000003</v>
       </c>
       <c r="BE26" s="1">
         <v>22.337519</v>
       </c>
       <c r="BF26" s="1">
-        <v>1046.790000</v>
+        <v>1046.79</v>
       </c>
       <c r="BG26" s="1">
-        <v>-194.831000</v>
+        <v>-194.83099999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>80426.800763</v>
+        <v>80426.800763000007</v>
       </c>
       <c r="BJ26" s="1">
         <v>22.340778</v>
       </c>
       <c r="BK26" s="1">
-        <v>1113.690000</v>
+        <v>1113.69</v>
       </c>
       <c r="BL26" s="1">
-        <v>-309.410000</v>
+        <v>-309.41000000000003</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>80437.928474</v>
       </c>
       <c r="BO26" s="1">
-        <v>22.343869</v>
+        <v>22.343869000000002</v>
       </c>
       <c r="BP26" s="1">
-        <v>1221.890000</v>
+        <v>1221.8900000000001</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-488.805000</v>
+        <v>-488.80500000000001</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>80448.524510</v>
+        <v>80448.524510000003</v>
       </c>
       <c r="BT26" s="1">
         <v>22.346812</v>
       </c>
       <c r="BU26" s="1">
-        <v>1343.080000</v>
+        <v>1343.08</v>
       </c>
       <c r="BV26" s="1">
-        <v>-684.492000</v>
+        <v>-684.49199999999996</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>80459.957294</v>
+        <v>80459.957294000007</v>
       </c>
       <c r="BY26" s="1">
         <v>22.349988</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1477.290000</v>
+        <v>1477.29</v>
       </c>
       <c r="CA26" s="1">
-        <v>-892.581000</v>
+        <v>-892.58100000000002</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>80473.349772</v>
+        <v>80473.349772000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>22.353708</v>
+        <v>22.353708000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1826.020000</v>
+        <v>1826.02</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1385.600000</v>
+        <v>-1385.6</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>